--- a/data/all_data_df_sm.xlsx
+++ b/data/all_data_df_sm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22440"/>
+    <workbookView windowWidth="19880" windowHeight="13300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="195">
   <si>
     <t>conference</t>
   </si>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t>2021_09_30_MZT_S6</t>
-  </si>
-  <si>
-    <t>2021_09_30_MZT_S7</t>
   </si>
   <si>
     <t>2021SLU</t>
@@ -627,7 +624,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,13 +635,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1112,28 +1102,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1142,118 +1135,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1608,16 +1598,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE158"/>
+  <dimension ref="A1:AE157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="V65" workbookViewId="0">
+      <selection activeCell="V81" sqref="$A81:$XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="15" max="23" width="12.6875"/>
-    <col min="27" max="27" width="12.6875"/>
+    <col min="6" max="6" width="12.6875"/>
+    <col min="15" max="24" width="12.6875"/>
+    <col min="26" max="27" width="12.6875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -9222,183 +9213,183 @@
     </row>
     <row r="81" spans="1:31">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81">
-        <v>7541</v>
+        <v>3618</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>7.83715687574592</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H81">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I81">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="J81">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K81">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="L81">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="M81">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="N81">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O81">
-        <v>1.74725274725275</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="P81">
-        <v>1.83582089552239</v>
+        <v>1.9</v>
       </c>
       <c r="Q81">
-        <v>1.80147058823529</v>
+        <v>1.77551020408163</v>
       </c>
       <c r="R81">
-        <v>1.30952380952381</v>
+        <v>1.075</v>
       </c>
       <c r="S81">
-        <v>0.941176470588235</v>
+        <v>0.82051282051282</v>
       </c>
       <c r="T81">
-        <v>1.06493506493507</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="U81">
-        <v>1.25</v>
+        <v>1.38235294117647</v>
       </c>
       <c r="V81">
-        <v>1.72727272727273</v>
+        <v>1.125</v>
       </c>
       <c r="W81">
-        <v>0.00470588235294118</v>
+        <v>0.00790513833992095</v>
       </c>
       <c r="X81">
-        <v>0.472941176470588</v>
+        <v>0.509881422924901</v>
       </c>
       <c r="Y81">
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <v>0.233201581027668</v>
+      </c>
+      <c r="AA81">
+        <v>1.36</v>
+      </c>
+      <c r="AB81">
         <v>3</v>
       </c>
-      <c r="Z81">
-        <v>0.303529411764706</v>
-      </c>
-      <c r="AA81">
-        <v>1.20833333333333</v>
-      </c>
-      <c r="AB81">
-        <v>8</v>
-      </c>
       <c r="AC81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD81">
         <v>1</v>
       </c>
       <c r="AE81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:31">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
         <v>116</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>3618</v>
+        <v>3508</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>9.20752565564424</v>
       </c>
       <c r="G82">
         <v>72</v>
       </c>
       <c r="H82">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I82">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J82">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K82">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="L82">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M82">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N82">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O82">
-        <v>1.70833333333333</v>
+        <v>1.73611111111111</v>
       </c>
       <c r="P82">
-        <v>1.9</v>
+        <v>1.828125</v>
       </c>
       <c r="Q82">
-        <v>1.77551020408163</v>
+        <v>1.75454545454546</v>
       </c>
       <c r="R82">
-        <v>1.075</v>
+        <v>1.18181818181818</v>
       </c>
       <c r="S82">
-        <v>0.82051282051282</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="T82">
-        <v>0.944444444444444</v>
+        <v>1.05263157894737</v>
       </c>
       <c r="U82">
-        <v>1.38235294117647</v>
+        <v>1.36111111111111</v>
       </c>
       <c r="V82">
-        <v>1.125</v>
+        <v>1.38461538461539</v>
       </c>
       <c r="W82">
-        <v>0.00790513833992095</v>
+        <v>0</v>
       </c>
       <c r="X82">
-        <v>0.509881422924901</v>
+        <v>0.621951219512195</v>
       </c>
       <c r="Y82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z82">
-        <v>0.233201581027668</v>
+        <v>0.215447154471545</v>
       </c>
       <c r="AA82">
-        <v>1.36</v>
+        <v>1.50588235294118</v>
       </c>
       <c r="AB82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -9412,85 +9403,85 @@
     </row>
     <row r="83" spans="1:31">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
         <v>117</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>3508</v>
+        <v>3753</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>9.20752565564424</v>
+        <v>2.50466293631761</v>
       </c>
       <c r="G83">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H83">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I83">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="J83">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K83">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="L83">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M83">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N83">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O83">
-        <v>1.73611111111111</v>
+        <v>1.77027027027027</v>
       </c>
       <c r="P83">
-        <v>1.828125</v>
+        <v>1.74193548387097</v>
       </c>
       <c r="Q83">
-        <v>1.75454545454546</v>
+        <v>1.81967213114754</v>
       </c>
       <c r="R83">
-        <v>1.18181818181818</v>
+        <v>1.67741935483871</v>
       </c>
       <c r="S83">
-        <v>0.981132075471698</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="T83">
-        <v>1.05263157894737</v>
+        <v>1.23255813953488</v>
       </c>
       <c r="U83">
-        <v>1.36111111111111</v>
+        <v>1.3265306122449</v>
       </c>
       <c r="V83">
-        <v>1.38461538461539</v>
+        <v>1.54545454545454</v>
       </c>
       <c r="W83">
-        <v>0</v>
+        <v>0.00561797752808989</v>
       </c>
       <c r="X83">
-        <v>0.621951219512195</v>
+        <v>0.567415730337079</v>
       </c>
       <c r="Y83">
         <v>2</v>
       </c>
       <c r="Z83">
-        <v>0.215447154471545</v>
+        <v>0.455056179775281</v>
       </c>
       <c r="AA83">
-        <v>1.50588235294118</v>
+        <v>1.44871794871795</v>
       </c>
       <c r="AB83">
         <v>1</v>
@@ -9507,7 +9498,7 @@
     </row>
     <row r="84" spans="1:31">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" t="s">
         <v>118</v>
@@ -9516,93 +9507,93 @@
         <v>11</v>
       </c>
       <c r="D84">
-        <v>3753</v>
+        <v>3270</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>2.50466293631761</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H84">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I84">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="J84">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K84">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L84">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M84">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N84">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O84">
-        <v>1.77027027027027</v>
+        <v>1.80952380952381</v>
       </c>
       <c r="P84">
-        <v>1.74193548387097</v>
+        <v>1.76086956521739</v>
       </c>
       <c r="Q84">
-        <v>1.81967213114754</v>
+        <v>1.81818181818182</v>
       </c>
       <c r="R84">
-        <v>1.67741935483871</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="S84">
-        <v>0.926829268292683</v>
+        <v>1.09302325581395</v>
       </c>
       <c r="T84">
-        <v>1.23255813953488</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="U84">
-        <v>1.3265306122449</v>
+        <v>1.40625</v>
       </c>
       <c r="V84">
-        <v>1.54545454545454</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="W84">
-        <v>0.00561797752808989</v>
+        <v>0</v>
       </c>
       <c r="X84">
-        <v>0.567415730337079</v>
+        <v>0.615789473684211</v>
       </c>
       <c r="Y84">
+        <v>1</v>
+      </c>
+      <c r="Z84">
+        <v>0.294736842105263</v>
+      </c>
+      <c r="AA84">
+        <v>1.49514563106796</v>
+      </c>
+      <c r="AB84">
         <v>2</v>
       </c>
-      <c r="Z84">
-        <v>0.455056179775281</v>
-      </c>
-      <c r="AA84">
-        <v>1.44871794871795</v>
-      </c>
-      <c r="AB84">
-        <v>1</v>
-      </c>
       <c r="AC84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD84">
         <v>1</v>
       </c>
       <c r="AE84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:31">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
         <v>119</v>
@@ -9611,7 +9602,7 @@
         <v>11</v>
       </c>
       <c r="D85">
-        <v>3270</v>
+        <v>3281</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -9620,67 +9611,67 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H85">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I85">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J85">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K85">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="L85">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M85">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N85">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O85">
-        <v>1.80952380952381</v>
+        <v>1.80434782608696</v>
       </c>
       <c r="P85">
-        <v>1.76086956521739</v>
+        <v>1.83870967741935</v>
       </c>
       <c r="Q85">
-        <v>1.81818181818182</v>
+        <v>1.84722222222222</v>
       </c>
       <c r="R85">
-        <v>1.42857142857143</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="S85">
-        <v>1.09302325581395</v>
+        <v>0.971014492753623</v>
       </c>
       <c r="T85">
-        <v>1.42857142857143</v>
+        <v>1.30434782608696</v>
       </c>
       <c r="U85">
-        <v>1.40625</v>
+        <v>1.28947368421053</v>
       </c>
       <c r="V85">
-        <v>1.33333333333333</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>0.00497512437810945</v>
       </c>
       <c r="X85">
-        <v>0.615789473684211</v>
+        <v>0.532338308457711</v>
       </c>
       <c r="Y85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z85">
-        <v>0.294736842105263</v>
+        <v>0.432835820895522</v>
       </c>
       <c r="AA85">
-        <v>1.49514563106796</v>
+        <v>1.2043795620438</v>
       </c>
       <c r="AB85">
         <v>2</v>
@@ -9697,7 +9688,7 @@
     </row>
     <row r="86" spans="1:31">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B86" t="s">
         <v>120</v>
@@ -9706,79 +9697,79 @@
         <v>11</v>
       </c>
       <c r="D86">
-        <v>3281</v>
+        <v>3916</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.459652706843718</v>
       </c>
       <c r="G86">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I86">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J86">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K86">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L86">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M86">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N86">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O86">
-        <v>1.80434782608696</v>
+        <v>1.81395348837209</v>
       </c>
       <c r="P86">
-        <v>1.83870967741935</v>
+        <v>1.87179487179487</v>
       </c>
       <c r="Q86">
-        <v>1.84722222222222</v>
+        <v>1.7972972972973</v>
       </c>
       <c r="R86">
-        <v>1.36363636363636</v>
+        <v>1.57894736842105</v>
       </c>
       <c r="S86">
-        <v>0.971014492753623</v>
+        <v>1.10344827586207</v>
       </c>
       <c r="T86">
-        <v>1.30434782608696</v>
+        <v>1.19230769230769</v>
       </c>
       <c r="U86">
-        <v>1.28947368421053</v>
+        <v>1.30769230769231</v>
       </c>
       <c r="V86">
-        <v>1.28571428571429</v>
+        <v>1.41666666666667</v>
       </c>
       <c r="W86">
-        <v>0.00497512437810945</v>
+        <v>0</v>
       </c>
       <c r="X86">
-        <v>0.532338308457711</v>
+        <v>0.597989949748744</v>
       </c>
       <c r="Y86">
         <v>2</v>
       </c>
       <c r="Z86">
-        <v>0.432835820895522</v>
+        <v>0.331658291457286</v>
       </c>
       <c r="AA86">
-        <v>1.2043795620438</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="AB86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC86">
         <v>1</v>
@@ -9792,7 +9783,7 @@
     </row>
     <row r="87" spans="1:31">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
         <v>121</v>
@@ -9801,79 +9792,79 @@
         <v>11</v>
       </c>
       <c r="D87">
-        <v>3916</v>
+        <v>3951</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.459652706843718</v>
+        <v>0.911161731207289</v>
       </c>
       <c r="G87">
+        <v>61</v>
+      </c>
+      <c r="H87">
         <v>43</v>
       </c>
-      <c r="H87">
-        <v>39</v>
-      </c>
       <c r="I87">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J87">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K87">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L87">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M87">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N87">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O87">
-        <v>1.81395348837209</v>
+        <v>1.77049180327869</v>
       </c>
       <c r="P87">
-        <v>1.87179487179487</v>
+        <v>1.83720930232558</v>
       </c>
       <c r="Q87">
-        <v>1.7972972972973</v>
+        <v>1.82926829268293</v>
       </c>
       <c r="R87">
-        <v>1.57894736842105</v>
+        <v>1.41935483870968</v>
       </c>
       <c r="S87">
-        <v>1.10344827586207</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="T87">
-        <v>1.19230769230769</v>
+        <v>1.25</v>
       </c>
       <c r="U87">
-        <v>1.30769230769231</v>
+        <v>1.24489795918367</v>
       </c>
       <c r="V87">
-        <v>1.41666666666667</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="W87">
         <v>0</v>
       </c>
       <c r="X87">
-        <v>0.597989949748744</v>
+        <v>0.584158415841584</v>
       </c>
       <c r="Y87">
+        <v>1</v>
+      </c>
+      <c r="Z87">
+        <v>0.376237623762376</v>
+      </c>
+      <c r="AA87">
+        <v>1.31851851851852</v>
+      </c>
+      <c r="AB87">
         <v>2</v>
-      </c>
-      <c r="Z87">
-        <v>0.331658291457286</v>
-      </c>
-      <c r="AA87">
-        <v>1.33333333333333</v>
-      </c>
-      <c r="AB87">
-        <v>1</v>
       </c>
       <c r="AC87">
         <v>1</v>
@@ -9887,88 +9878,88 @@
     </row>
     <row r="88" spans="1:31">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B88" t="s">
         <v>122</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D88">
-        <v>3951</v>
+        <v>3895</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.911161731207289</v>
+        <v>3.90243902439024</v>
       </c>
       <c r="G88">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H88">
+        <v>52</v>
+      </c>
+      <c r="I88">
+        <v>72</v>
+      </c>
+      <c r="J88">
+        <v>33</v>
+      </c>
+      <c r="K88">
+        <v>86</v>
+      </c>
+      <c r="L88">
+        <v>51</v>
+      </c>
+      <c r="M88">
         <v>43</v>
       </c>
-      <c r="I88">
-        <v>82</v>
-      </c>
-      <c r="J88">
-        <v>31</v>
-      </c>
-      <c r="K88">
-        <v>66</v>
-      </c>
-      <c r="L88">
-        <v>20</v>
-      </c>
-      <c r="M88">
-        <v>49</v>
-      </c>
       <c r="N88">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O88">
-        <v>1.77049180327869</v>
+        <v>1.64788732394366</v>
       </c>
       <c r="P88">
-        <v>1.83720930232558</v>
+        <v>1.69230769230769</v>
       </c>
       <c r="Q88">
-        <v>1.82926829268293</v>
+        <v>1.81944444444444</v>
       </c>
       <c r="R88">
-        <v>1.41935483870968</v>
+        <v>1.42424242424242</v>
       </c>
       <c r="S88">
-        <v>0.878787878787879</v>
+        <v>0.86046511627907</v>
       </c>
       <c r="T88">
-        <v>1.25</v>
+        <v>1.15686274509804</v>
       </c>
       <c r="U88">
-        <v>1.24489795918367</v>
+        <v>1.34883720930233</v>
       </c>
       <c r="V88">
-        <v>1.71428571428571</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="W88">
         <v>0</v>
       </c>
       <c r="X88">
-        <v>0.584158415841584</v>
+        <v>0.479553903345725</v>
       </c>
       <c r="Y88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z88">
-        <v>0.376237623762376</v>
+        <v>0.486988847583643</v>
       </c>
       <c r="AA88">
-        <v>1.31851851851852</v>
+        <v>1.24537037037037</v>
       </c>
       <c r="AB88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC88">
         <v>1</v>
@@ -9982,7 +9973,7 @@
     </row>
     <row r="89" spans="1:31">
       <c r="A89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
         <v>123</v>
@@ -9991,82 +9982,82 @@
         <v>13</v>
       </c>
       <c r="D89">
-        <v>3895</v>
+        <v>3476</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>3.90243902439024</v>
+        <v>23.6766398158803</v>
       </c>
       <c r="G89">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H89">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I89">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="J89">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K89">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L89">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M89">
         <v>43</v>
       </c>
       <c r="N89">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O89">
-        <v>1.64788732394366</v>
+        <v>1.61842105263158</v>
       </c>
       <c r="P89">
-        <v>1.69230769230769</v>
+        <v>1.69811320754717</v>
       </c>
       <c r="Q89">
-        <v>1.81944444444444</v>
+        <v>1.75925925925926</v>
       </c>
       <c r="R89">
-        <v>1.42424242424242</v>
+        <v>1.37142857142857</v>
       </c>
       <c r="S89">
-        <v>0.86046511627907</v>
+        <v>0.804597701149425</v>
       </c>
       <c r="T89">
-        <v>1.15686274509804</v>
+        <v>1.02439024390244</v>
       </c>
       <c r="U89">
-        <v>1.34883720930233</v>
+        <v>1.23255813953488</v>
       </c>
       <c r="V89">
-        <v>1.33333333333333</v>
+        <v>1.72222222222222</v>
       </c>
       <c r="W89">
         <v>0</v>
       </c>
       <c r="X89">
-        <v>0.479553903345725</v>
+        <v>0.50974025974026</v>
       </c>
       <c r="Y89">
         <v>2</v>
       </c>
       <c r="Z89">
-        <v>0.486988847583643</v>
+        <v>0.399350649350649</v>
       </c>
       <c r="AA89">
-        <v>1.24537037037037</v>
+        <v>1.31067961165049</v>
       </c>
       <c r="AB89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD89">
         <v>1</v>
@@ -10077,7 +10068,7 @@
     </row>
     <row r="90" spans="1:31">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s">
         <v>124</v>
@@ -10086,93 +10077,93 @@
         <v>13</v>
       </c>
       <c r="D90">
-        <v>3476</v>
+        <v>3508</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>23.6766398158803</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H90">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I90">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="J90">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K90">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="L90">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M90">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N90">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O90">
-        <v>1.61842105263158</v>
+        <v>1.72549019607843</v>
       </c>
       <c r="P90">
-        <v>1.69811320754717</v>
+        <v>1.81481481481482</v>
       </c>
       <c r="Q90">
-        <v>1.75925925925926</v>
+        <v>1.74324324324324</v>
       </c>
       <c r="R90">
-        <v>1.37142857142857</v>
+        <v>1.63636363636364</v>
       </c>
       <c r="S90">
-        <v>0.804597701149425</v>
+        <v>1.07843137254902</v>
       </c>
       <c r="T90">
-        <v>1.02439024390244</v>
+        <v>1.26666666666667</v>
       </c>
       <c r="U90">
-        <v>1.23255813953488</v>
+        <v>1.34782608695652</v>
       </c>
       <c r="V90">
-        <v>1.72222222222222</v>
+        <v>1.72727272727273</v>
       </c>
       <c r="W90">
         <v>0</v>
       </c>
       <c r="X90">
-        <v>0.50974025974026</v>
+        <v>0.551219512195122</v>
       </c>
       <c r="Y90">
         <v>2</v>
       </c>
       <c r="Z90">
-        <v>0.399350649350649</v>
+        <v>0.482926829268293</v>
       </c>
       <c r="AA90">
-        <v>1.31067961165049</v>
+        <v>1.49390243902439</v>
       </c>
       <c r="AB90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:31">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91" t="s">
         <v>125</v>
@@ -10181,76 +10172,76 @@
         <v>13</v>
       </c>
       <c r="D91">
-        <v>3508</v>
+        <v>3531</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>8.49617672047579</v>
       </c>
       <c r="G91">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H91">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I91">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J91">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K91">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="L91">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M91">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N91">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O91">
-        <v>1.72549019607843</v>
+        <v>1.8</v>
       </c>
       <c r="P91">
-        <v>1.81481481481482</v>
+        <v>1.84615384615385</v>
       </c>
       <c r="Q91">
-        <v>1.74324324324324</v>
+        <v>1.79220779220779</v>
       </c>
       <c r="R91">
-        <v>1.63636363636364</v>
+        <v>1.38461538461539</v>
       </c>
       <c r="S91">
-        <v>1.07843137254902</v>
+        <v>0.890243902439024</v>
       </c>
       <c r="T91">
-        <v>1.26666666666667</v>
+        <v>0.914285714285714</v>
       </c>
       <c r="U91">
-        <v>1.34782608695652</v>
+        <v>1</v>
       </c>
       <c r="V91">
-        <v>1.72727272727273</v>
+        <v>1.7</v>
       </c>
       <c r="W91">
-        <v>0</v>
+        <v>0.00809716599190283</v>
       </c>
       <c r="X91">
-        <v>0.551219512195122</v>
+        <v>0.433198380566802</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z91">
-        <v>0.482926829268293</v>
+        <v>0.214574898785425</v>
       </c>
       <c r="AA91">
-        <v>1.49390243902439</v>
+        <v>1.15116279069767</v>
       </c>
       <c r="AB91">
         <v>0</v>
@@ -10267,278 +10258,278 @@
     </row>
     <row r="92" spans="1:31">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B92" t="s">
         <v>126</v>
       </c>
       <c r="C92">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>3531</v>
+        <v>3702</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>8.49617672047579</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I92">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="J92">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K92">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L92">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M92">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O92">
-        <v>1.8</v>
+        <v>1.74285714285714</v>
       </c>
       <c r="P92">
-        <v>1.84615384615385</v>
+        <v>1.75675675675676</v>
       </c>
       <c r="Q92">
-        <v>1.79220779220779</v>
+        <v>1.82539682539682</v>
       </c>
       <c r="R92">
-        <v>1.38461538461539</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="S92">
-        <v>0.890243902439024</v>
+        <v>0.54320987654321</v>
       </c>
       <c r="T92">
-        <v>0.914285714285714</v>
+        <v>1.19444444444444</v>
       </c>
       <c r="U92">
-        <v>1</v>
+        <v>1.16129032258065</v>
       </c>
       <c r="V92">
-        <v>1.7</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="W92">
-        <v>0.00809716599190283</v>
+        <v>0.00873362445414847</v>
       </c>
       <c r="X92">
-        <v>0.433198380566802</v>
+        <v>0.388646288209607</v>
       </c>
       <c r="Y92">
         <v>1</v>
       </c>
       <c r="Z92">
-        <v>0.214574898785425</v>
+        <v>0.310043668122271</v>
       </c>
       <c r="AA92">
-        <v>1.15116279069767</v>
+        <v>1.23770491803279</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:31">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
         <v>127</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>3702</v>
+        <v>3772</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>25.0265111346766</v>
       </c>
       <c r="G93">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H93">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I93">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="J93">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K93">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="L93">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M93">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N93">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O93">
-        <v>1.74285714285714</v>
+        <v>1.74074074074074</v>
       </c>
       <c r="P93">
-        <v>1.75675675675676</v>
+        <v>1.91489361702128</v>
       </c>
       <c r="Q93">
-        <v>1.82539682539682</v>
+        <v>1.75247524752475</v>
       </c>
       <c r="R93">
-        <v>1.23809523809524</v>
+        <v>1.61538461538461</v>
       </c>
       <c r="S93">
-        <v>0.54320987654321</v>
+        <v>1.11290322580645</v>
       </c>
       <c r="T93">
-        <v>1.19444444444444</v>
+        <v>0.96</v>
       </c>
       <c r="U93">
-        <v>1.16129032258065</v>
+        <v>1.26666666666667</v>
       </c>
       <c r="V93">
-        <v>1.42857142857143</v>
+        <v>1.35714285714286</v>
       </c>
       <c r="W93">
-        <v>0.00873362445414847</v>
+        <v>0</v>
       </c>
       <c r="X93">
-        <v>0.388646288209607</v>
+        <v>0.570281124497992</v>
       </c>
       <c r="Y93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z93">
-        <v>0.310043668122271</v>
+        <v>0.248995983935743</v>
       </c>
       <c r="AA93">
-        <v>1.23770491803279</v>
+        <v>1.28723404255319</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD93">
         <v>1</v>
       </c>
       <c r="AE93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:31">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B94" t="s">
         <v>128</v>
       </c>
       <c r="C94">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94">
-        <v>3772</v>
+        <v>3624</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>25.0265111346766</v>
+        <v>41.3079470198675</v>
       </c>
       <c r="G94">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H94">
         <v>47</v>
       </c>
       <c r="I94">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="J94">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K94">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L94">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M94">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N94">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O94">
-        <v>1.74074074074074</v>
+        <v>1.58823529411765</v>
       </c>
       <c r="P94">
-        <v>1.91489361702128</v>
+        <v>1.74468085106383</v>
       </c>
       <c r="Q94">
-        <v>1.75247524752475</v>
+        <v>1.81176470588235</v>
       </c>
       <c r="R94">
-        <v>1.61538461538461</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="S94">
-        <v>1.11290322580645</v>
+        <v>0.868852459016393</v>
       </c>
       <c r="T94">
-        <v>0.96</v>
+        <v>1.21212121212121</v>
       </c>
       <c r="U94">
-        <v>1.26666666666667</v>
+        <v>1.31818181818182</v>
       </c>
       <c r="V94">
-        <v>1.35714285714286</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="W94">
-        <v>0</v>
+        <v>0.00778210116731518</v>
       </c>
       <c r="X94">
-        <v>0.570281124497992</v>
+        <v>0.490272373540856</v>
       </c>
       <c r="Y94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z94">
-        <v>0.248995983935743</v>
+        <v>0.202334630350195</v>
       </c>
       <c r="AA94">
-        <v>1.28723404255319</v>
+        <v>1.35227272727273</v>
       </c>
       <c r="AB94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -10552,102 +10543,102 @@
     </row>
     <row r="95" spans="1:31">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
         <v>129</v>
       </c>
       <c r="C95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95">
-        <v>3624</v>
+        <v>3536</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>41.3079470198675</v>
+        <v>9.21945701357466</v>
       </c>
       <c r="G95">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H95">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I95">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="J95">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K95">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="L95">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M95">
         <v>44</v>
       </c>
       <c r="N95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O95">
-        <v>1.58823529411765</v>
+        <v>1.75555555555556</v>
       </c>
       <c r="P95">
-        <v>1.74468085106383</v>
+        <v>1.78048780487805</v>
       </c>
       <c r="Q95">
-        <v>1.81176470588235</v>
+        <v>1.84057971014493</v>
       </c>
       <c r="R95">
-        <v>1.33333333333333</v>
+        <v>1.48</v>
       </c>
       <c r="S95">
-        <v>0.868852459016393</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="T95">
-        <v>1.21212121212121</v>
+        <v>1</v>
       </c>
       <c r="U95">
-        <v>1.31818181818182</v>
+        <v>1.25</v>
       </c>
       <c r="V95">
-        <v>1.57142857142857</v>
+        <v>1.625</v>
       </c>
       <c r="W95">
-        <v>0.00778210116731518</v>
+        <v>0.00478468899521531</v>
       </c>
       <c r="X95">
-        <v>0.490272373540856</v>
+        <v>0.488038277511962</v>
       </c>
       <c r="Y95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z95">
-        <v>0.202334630350195</v>
+        <v>0.45933014354067</v>
       </c>
       <c r="AA95">
-        <v>1.35227272727273</v>
+        <v>1.23648648648649</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD95">
         <v>1</v>
       </c>
       <c r="AE95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:31">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
         <v>130</v>
@@ -10656,82 +10647,82 @@
         <v>10</v>
       </c>
       <c r="D96">
-        <v>3536</v>
+        <v>3629</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>9.21945701357466</v>
+        <v>5.12537889225682</v>
       </c>
       <c r="G96">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H96">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I96">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="J96">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K96">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L96">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M96">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O96">
-        <v>1.75555555555556</v>
+        <v>1.60714285714286</v>
       </c>
       <c r="P96">
-        <v>1.78048780487805</v>
+        <v>1.76811594202899</v>
       </c>
       <c r="Q96">
-        <v>1.84057971014493</v>
+        <v>1.73118279569892</v>
       </c>
       <c r="R96">
-        <v>1.48</v>
+        <v>1.37037037037037</v>
       </c>
       <c r="S96">
-        <v>0.695652173913043</v>
+        <v>1.02739726027397</v>
       </c>
       <c r="T96">
-        <v>1</v>
+        <v>1.29166666666667</v>
       </c>
       <c r="U96">
-        <v>1.25</v>
+        <v>1.38709677419355</v>
       </c>
       <c r="V96">
-        <v>1.625</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="W96">
-        <v>0.00478468899521531</v>
+        <v>0</v>
       </c>
       <c r="X96">
-        <v>0.488038277511962</v>
+        <v>0.534351145038168</v>
       </c>
       <c r="Y96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z96">
-        <v>0.45933014354067</v>
+        <v>0.217557251908397</v>
       </c>
       <c r="AA96">
-        <v>1.23648648648649</v>
+        <v>1.42352941176471</v>
       </c>
       <c r="AB96">
         <v>2</v>
       </c>
       <c r="AC96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD96">
         <v>1</v>
@@ -10742,91 +10733,91 @@
     </row>
     <row r="97" spans="1:31">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
         <v>131</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D97">
-        <v>3629</v>
+        <v>3728</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>5.12537889225682</v>
+        <v>14.6459227467811</v>
       </c>
       <c r="G97">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H97">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I97">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="J97">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K97">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="L97">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M97">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N97">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O97">
-        <v>1.60714285714286</v>
+        <v>1.75675675675676</v>
       </c>
       <c r="P97">
-        <v>1.76811594202899</v>
+        <v>1.84375</v>
       </c>
       <c r="Q97">
-        <v>1.73118279569892</v>
+        <v>1.92592592592593</v>
       </c>
       <c r="R97">
-        <v>1.37037037037037</v>
+        <v>1.68181818181818</v>
       </c>
       <c r="S97">
-        <v>1.02739726027397</v>
+        <v>0.988505747126437</v>
       </c>
       <c r="T97">
-        <v>1.29166666666667</v>
+        <v>0.971428571428571</v>
       </c>
       <c r="U97">
-        <v>1.38709677419355</v>
+        <v>1.3469387755102</v>
       </c>
       <c r="V97">
-        <v>1.71428571428571</v>
+        <v>1.69230769230769</v>
       </c>
       <c r="W97">
-        <v>0</v>
+        <v>0.00469483568075117</v>
       </c>
       <c r="X97">
-        <v>0.534351145038168</v>
+        <v>0.483568075117371</v>
       </c>
       <c r="Y97">
         <v>1</v>
       </c>
       <c r="Z97">
-        <v>0.217557251908397</v>
+        <v>0.389671361502347</v>
       </c>
       <c r="AA97">
-        <v>1.42352941176471</v>
+        <v>1.28787878787879</v>
       </c>
       <c r="AB97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD97">
         <v>1</v>
@@ -10837,189 +10828,189 @@
     </row>
     <row r="98" spans="1:31">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
         <v>132</v>
       </c>
       <c r="C98">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D98">
-        <v>3728</v>
+        <v>3608</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>14.6459227467811</v>
+        <v>24.2793791574279</v>
       </c>
       <c r="G98">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H98">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I98">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="J98">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K98">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="L98">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M98">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N98">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="O98">
-        <v>1.75675675675676</v>
+        <v>1.66</v>
       </c>
       <c r="P98">
-        <v>1.84375</v>
+        <v>1.71739130434783</v>
       </c>
       <c r="Q98">
-        <v>1.92592592592593</v>
+        <v>1.73118279569892</v>
       </c>
       <c r="R98">
-        <v>1.68181818181818</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="S98">
-        <v>0.988505747126437</v>
+        <v>0.82258064516129</v>
       </c>
       <c r="T98">
-        <v>0.971428571428571</v>
+        <v>1.22222222222222</v>
       </c>
       <c r="U98">
-        <v>1.3469387755102</v>
+        <v>1.25</v>
       </c>
       <c r="V98">
-        <v>1.69230769230769</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="W98">
-        <v>0.00469483568075117</v>
+        <v>0.0115384615384615</v>
       </c>
       <c r="X98">
-        <v>0.483568075117371</v>
+        <v>0.457692307692308</v>
       </c>
       <c r="Y98">
         <v>1</v>
       </c>
       <c r="Z98">
-        <v>0.389671361502347</v>
+        <v>0.353846153846154</v>
       </c>
       <c r="AA98">
-        <v>1.28787878787879</v>
+        <v>1.29931972789116</v>
       </c>
       <c r="AB98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD98">
         <v>1</v>
       </c>
       <c r="AE98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:31">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
         <v>133</v>
       </c>
       <c r="C99">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99">
-        <v>3608</v>
+        <v>3396</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>24.2793791574279</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H99">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I99">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="J99">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K99">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L99">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M99">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O99">
-        <v>1.66</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="P99">
-        <v>1.71739130434783</v>
+        <v>1.80555555555556</v>
       </c>
       <c r="Q99">
-        <v>1.73118279569892</v>
+        <v>1.77272727272727</v>
       </c>
       <c r="R99">
-        <v>1.14285714285714</v>
+        <v>1.5</v>
       </c>
       <c r="S99">
-        <v>0.82258064516129</v>
+        <v>1.07575757575758</v>
       </c>
       <c r="T99">
-        <v>1.22222222222222</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="U99">
-        <v>1.25</v>
+        <v>1.11111111111111</v>
       </c>
       <c r="V99">
-        <v>1.33333333333333</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
-        <v>0.0115384615384615</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="X99">
-        <v>0.457692307692308</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="Y99">
         <v>1</v>
       </c>
       <c r="Z99">
-        <v>0.353846153846154</v>
+        <v>0.216666666666667</v>
       </c>
       <c r="AA99">
-        <v>1.29931972789116</v>
+        <v>1.26315789473684</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC99">
         <v>0</v>
       </c>
       <c r="AD99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE99">
         <v>0</v>
@@ -11027,94 +11018,94 @@
     </row>
     <row r="100" spans="1:31">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
         <v>134</v>
       </c>
       <c r="C100">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>3396</v>
+        <v>3379</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>4.35039952648713</v>
       </c>
       <c r="G100">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H100">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I100">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="J100">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K100">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L100">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M100">
+        <v>39</v>
+      </c>
+      <c r="N100">
         <v>18</v>
       </c>
-      <c r="N100">
-        <v>5</v>
-      </c>
       <c r="O100">
-        <v>1.71428571428571</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="P100">
-        <v>1.80555555555556</v>
+        <v>1.77272727272727</v>
       </c>
       <c r="Q100">
-        <v>1.77272727272727</v>
+        <v>1.81927710843373</v>
       </c>
       <c r="R100">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="S100">
-        <v>1.07575757575758</v>
+        <v>1.0327868852459</v>
       </c>
       <c r="T100">
-        <v>0.933333333333333</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="U100">
-        <v>1.11111111111111</v>
+        <v>1.20512820512821</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.44444444444444</v>
       </c>
       <c r="W100">
-        <v>0.00555555555555556</v>
+        <v>0.00778210116731518</v>
       </c>
       <c r="X100">
-        <v>0.527777777777778</v>
+        <v>0.466926070038911</v>
       </c>
       <c r="Y100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z100">
-        <v>0.216666666666667</v>
+        <v>0.287937743190662</v>
       </c>
       <c r="AA100">
-        <v>1.26315789473684</v>
+        <v>1.26050420168067</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC100">
         <v>0</v>
       </c>
       <c r="AD100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE100">
         <v>0</v>
@@ -11122,180 +11113,180 @@
     </row>
     <row r="101" spans="1:31">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C101">
+        <v>13</v>
+      </c>
+      <c r="D101">
+        <v>3879</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>7.75973188966228</v>
+      </c>
+      <c r="G101">
+        <v>30</v>
+      </c>
+      <c r="H101">
+        <v>38</v>
+      </c>
+      <c r="I101">
+        <v>53</v>
+      </c>
+      <c r="J101">
+        <v>18</v>
+      </c>
+      <c r="K101">
+        <v>43</v>
+      </c>
+      <c r="L101">
+        <v>25</v>
+      </c>
+      <c r="M101">
+        <v>25</v>
+      </c>
+      <c r="N101">
         <v>11</v>
       </c>
-      <c r="D101">
-        <v>3379</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>4.35039952648713</v>
-      </c>
-      <c r="G101">
-        <v>48</v>
-      </c>
-      <c r="H101">
-        <v>44</v>
-      </c>
-      <c r="I101">
-        <v>83</v>
-      </c>
-      <c r="J101">
-        <v>25</v>
-      </c>
-      <c r="K101">
-        <v>61</v>
-      </c>
-      <c r="L101">
-        <v>26</v>
-      </c>
-      <c r="M101">
-        <v>39</v>
-      </c>
-      <c r="N101">
-        <v>18</v>
-      </c>
       <c r="O101">
-        <v>1.83333333333333</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="P101">
-        <v>1.77272727272727</v>
+        <v>1.81578947368421</v>
       </c>
       <c r="Q101">
-        <v>1.81927710843373</v>
+        <v>1.84905660377358</v>
       </c>
       <c r="R101">
-        <v>1.28</v>
+        <v>1.77777777777778</v>
       </c>
       <c r="S101">
-        <v>1.0327868852459</v>
+        <v>1.13953488372093</v>
       </c>
       <c r="T101">
-        <v>0.923076923076923</v>
+        <v>1.32</v>
       </c>
       <c r="U101">
-        <v>1.20512820512821</v>
+        <v>1.2</v>
       </c>
       <c r="V101">
-        <v>1.44444444444444</v>
+        <v>1.45454545454546</v>
       </c>
       <c r="W101">
-        <v>0.00778210116731518</v>
+        <v>0</v>
       </c>
       <c r="X101">
-        <v>0.466926070038911</v>
+        <v>0.652892561983471</v>
       </c>
       <c r="Y101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z101">
-        <v>0.287937743190662</v>
+        <v>0.380165289256198</v>
       </c>
       <c r="AA101">
-        <v>1.26050420168067</v>
+        <v>1.31764705882353</v>
       </c>
       <c r="AB101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD101">
         <v>1</v>
       </c>
       <c r="AE101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:31">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B102" t="s">
         <v>137</v>
       </c>
       <c r="C102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>3879</v>
+        <v>3482</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F102">
-        <v>7.75973188966228</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H102">
+        <v>50</v>
+      </c>
+      <c r="I102">
+        <v>65</v>
+      </c>
+      <c r="J102">
+        <v>21</v>
+      </c>
+      <c r="K102">
         <v>38</v>
       </c>
-      <c r="I102">
-        <v>53</v>
-      </c>
-      <c r="J102">
-        <v>18</v>
-      </c>
-      <c r="K102">
-        <v>43</v>
-      </c>
       <c r="L102">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M102">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N102">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O102">
+        <v>1.93939393939394</v>
+      </c>
+      <c r="P102">
+        <v>1.78</v>
+      </c>
+      <c r="Q102">
+        <v>1.8</v>
+      </c>
+      <c r="R102">
         <v>1.66666666666667</v>
       </c>
-      <c r="P102">
-        <v>1.81578947368421</v>
-      </c>
-      <c r="Q102">
-        <v>1.84905660377358</v>
-      </c>
-      <c r="R102">
-        <v>1.77777777777778</v>
-      </c>
       <c r="S102">
-        <v>1.13953488372093</v>
+        <v>1.26315789473684</v>
       </c>
       <c r="T102">
-        <v>1.32</v>
+        <v>0.709677419354839</v>
       </c>
       <c r="U102">
-        <v>1.2</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="V102">
-        <v>1.45454545454546</v>
+        <v>1.6</v>
       </c>
       <c r="W102">
         <v>0</v>
       </c>
       <c r="X102">
-        <v>0.652892561983471</v>
+        <v>0.701986754966887</v>
       </c>
       <c r="Y102">
         <v>1</v>
       </c>
       <c r="Z102">
-        <v>0.380165289256198</v>
+        <v>0.377483443708609</v>
       </c>
       <c r="AA102">
-        <v>1.31764705882353</v>
+        <v>1.27777777777778</v>
       </c>
       <c r="AB102">
         <v>1</v>
@@ -11312,183 +11303,183 @@
     </row>
     <row r="103" spans="1:31">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B103" t="s">
         <v>138</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103">
-        <v>3482</v>
+        <v>3495</v>
       </c>
       <c r="E103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>4.06294706723891</v>
       </c>
       <c r="G103">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I103">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="J103">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K103">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L103">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M103">
         <v>34</v>
       </c>
       <c r="N103">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="O103">
-        <v>1.93939393939394</v>
+        <v>1.81578947368421</v>
       </c>
       <c r="P103">
-        <v>1.78</v>
+        <v>1.80645161290323</v>
       </c>
       <c r="Q103">
-        <v>1.8</v>
+        <v>1.80246913580247</v>
       </c>
       <c r="R103">
-        <v>1.66666666666667</v>
+        <v>1.58333333333333</v>
       </c>
       <c r="S103">
-        <v>1.26315789473684</v>
+        <v>0.745098039215686</v>
       </c>
       <c r="T103">
-        <v>0.709677419354839</v>
+        <v>1.125</v>
       </c>
       <c r="U103">
-        <v>1.17647058823529</v>
+        <v>1.29411764705882</v>
       </c>
       <c r="V103">
-        <v>1.6</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="W103">
-        <v>0</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="X103">
-        <v>0.701986754966887</v>
+        <v>0.595375722543353</v>
       </c>
       <c r="Y103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z103">
-        <v>0.377483443708609</v>
+        <v>0.358381502890173</v>
       </c>
       <c r="AA103">
-        <v>1.27777777777778</v>
+        <v>1.41509433962264</v>
       </c>
       <c r="AB103">
         <v>1</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD103">
         <v>1</v>
       </c>
       <c r="AE103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:31">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B104" t="s">
         <v>139</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>3495</v>
+        <v>2605</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F104">
-        <v>4.06294706723891</v>
+        <v>6.60268714011516</v>
       </c>
       <c r="G104">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H104">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I104">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J104">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K104">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="L104">
         <v>16</v>
       </c>
       <c r="M104">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N104">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O104">
-        <v>1.81578947368421</v>
+        <v>1.72</v>
       </c>
       <c r="P104">
-        <v>1.80645161290323</v>
+        <v>1.84375</v>
       </c>
       <c r="Q104">
-        <v>1.80246913580247</v>
+        <v>1.69230769230769</v>
       </c>
       <c r="R104">
-        <v>1.58333333333333</v>
+        <v>1.38095238095238</v>
       </c>
       <c r="S104">
-        <v>0.745098039215686</v>
+        <v>1.05797101449275</v>
       </c>
       <c r="T104">
-        <v>1.125</v>
+        <v>0.8125</v>
       </c>
       <c r="U104">
-        <v>1.29411764705882</v>
+        <v>1.32142857142857</v>
       </c>
       <c r="V104">
-        <v>1.28571428571429</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="W104">
-        <v>0.0115606936416185</v>
+        <v>0</v>
       </c>
       <c r="X104">
-        <v>0.595375722543353</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="Y104">
         <v>2</v>
       </c>
       <c r="Z104">
-        <v>0.358381502890173</v>
+        <v>0.483695652173913</v>
       </c>
       <c r="AA104">
-        <v>1.41509433962264</v>
+        <v>1.36986301369863</v>
       </c>
       <c r="AB104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -11502,102 +11493,102 @@
     </row>
     <row r="105" spans="1:31">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105" t="s">
         <v>140</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D105">
-        <v>2605</v>
+        <v>3619</v>
       </c>
       <c r="E105">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>6.60268714011516</v>
+        <v>7.59878419452887</v>
       </c>
       <c r="G105">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I105">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J105">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K105">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="L105">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M105">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="N105">
         <v>7</v>
       </c>
       <c r="O105">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="P105">
-        <v>1.84375</v>
+        <v>1.7</v>
       </c>
       <c r="Q105">
-        <v>1.69230769230769</v>
+        <v>1.76190476190476</v>
       </c>
       <c r="R105">
-        <v>1.38095238095238</v>
+        <v>1.25</v>
       </c>
       <c r="S105">
-        <v>1.05797101449275</v>
+        <v>1.0506329113924</v>
       </c>
       <c r="T105">
-        <v>0.8125</v>
+        <v>1.18181818181818</v>
       </c>
       <c r="U105">
-        <v>1.32142857142857</v>
+        <v>1.32075471698113</v>
       </c>
       <c r="V105">
-        <v>1.42857142857143</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="W105">
-        <v>0</v>
+        <v>0.00512820512820513</v>
       </c>
       <c r="X105">
-        <v>0.543478260869565</v>
+        <v>0.471794871794872</v>
       </c>
       <c r="Y105">
         <v>2</v>
       </c>
       <c r="Z105">
-        <v>0.483695652173913</v>
+        <v>0.451282051282051</v>
       </c>
       <c r="AA105">
-        <v>1.36986301369863</v>
+        <v>1.24503311258278</v>
       </c>
       <c r="AB105">
+        <v>3</v>
+      </c>
+      <c r="AC105">
         <v>2</v>
       </c>
-      <c r="AC105">
-        <v>0</v>
-      </c>
       <c r="AD105">
         <v>1</v>
       </c>
       <c r="AE105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:31">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B106" t="s">
         <v>141</v>
@@ -11606,76 +11597,76 @@
         <v>15</v>
       </c>
       <c r="D106">
-        <v>3619</v>
+        <v>3039</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F106">
-        <v>7.59878419452887</v>
+        <v>10.8259295820994</v>
       </c>
       <c r="G106">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H106">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I106">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J106">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="K106">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="L106">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M106">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="N106">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O106">
-        <v>1.5</v>
+        <v>1.73809523809524</v>
       </c>
       <c r="P106">
-        <v>1.7</v>
+        <v>1.82142857142857</v>
       </c>
       <c r="Q106">
-        <v>1.76190476190476</v>
+        <v>1.77611940298508</v>
       </c>
       <c r="R106">
-        <v>1.25</v>
+        <v>1.17241379310345</v>
       </c>
       <c r="S106">
-        <v>1.0506329113924</v>
+        <v>1.08474576271186</v>
       </c>
       <c r="T106">
-        <v>1.18181818181818</v>
+        <v>1.30769230769231</v>
       </c>
       <c r="U106">
-        <v>1.32075471698113</v>
+        <v>1.3125</v>
       </c>
       <c r="V106">
-        <v>1.28571428571429</v>
+        <v>1.72727272727273</v>
       </c>
       <c r="W106">
-        <v>0.00512820512820513</v>
+        <v>0.0118343195266272</v>
       </c>
       <c r="X106">
-        <v>0.471794871794872</v>
+        <v>0.57396449704142</v>
       </c>
       <c r="Y106">
         <v>2</v>
       </c>
       <c r="Z106">
-        <v>0.451282051282051</v>
+        <v>0.473372781065089</v>
       </c>
       <c r="AA106">
-        <v>1.24503311258278</v>
+        <v>1.4041095890411</v>
       </c>
       <c r="AB106">
         <v>3</v>
@@ -11692,468 +11683,468 @@
     </row>
     <row r="107" spans="1:31">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B107" t="s">
         <v>142</v>
       </c>
       <c r="C107">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D107">
-        <v>3039</v>
+        <v>4124</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F107">
-        <v>10.8259295820994</v>
+        <v>1.11542192046557</v>
       </c>
       <c r="G107">
+        <v>49</v>
+      </c>
+      <c r="H107">
+        <v>43</v>
+      </c>
+      <c r="I107">
+        <v>73</v>
+      </c>
+      <c r="J107">
+        <v>17</v>
+      </c>
+      <c r="K107">
+        <v>53</v>
+      </c>
+      <c r="L107">
         <v>42</v>
-      </c>
-      <c r="H107">
-        <v>28</v>
-      </c>
-      <c r="I107">
-        <v>67</v>
-      </c>
-      <c r="J107">
-        <v>29</v>
-      </c>
-      <c r="K107">
-        <v>59</v>
-      </c>
-      <c r="L107">
-        <v>26</v>
       </c>
       <c r="M107">
         <v>32</v>
       </c>
       <c r="N107">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O107">
-        <v>1.73809523809524</v>
+        <v>1.87755102040816</v>
       </c>
       <c r="P107">
-        <v>1.82142857142857</v>
+        <v>1.86046511627907</v>
       </c>
       <c r="Q107">
-        <v>1.77611940298508</v>
+        <v>1.75342465753425</v>
       </c>
       <c r="R107">
-        <v>1.17241379310345</v>
+        <v>1.64705882352941</v>
       </c>
       <c r="S107">
-        <v>1.08474576271186</v>
+        <v>1.11320754716981</v>
       </c>
       <c r="T107">
-        <v>1.30769230769231</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="U107">
-        <v>1.3125</v>
+        <v>1.5</v>
       </c>
       <c r="V107">
-        <v>1.72727272727273</v>
+        <v>1.3</v>
       </c>
       <c r="W107">
-        <v>0.0118343195266272</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="X107">
-        <v>0.57396449704142</v>
+        <v>0.664804469273743</v>
       </c>
       <c r="Y107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z107">
-        <v>0.473372781065089</v>
+        <v>0.407821229050279</v>
       </c>
       <c r="AA107">
-        <v>1.4041095890411</v>
+        <v>1.52054794520548</v>
       </c>
       <c r="AB107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD107">
         <v>1</v>
       </c>
       <c r="AE107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:31">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108" t="s">
         <v>143</v>
       </c>
       <c r="C108">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D108">
-        <v>4124</v>
+        <v>3338</v>
       </c>
       <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>24.8052726183343</v>
+      </c>
+      <c r="G108">
+        <v>65</v>
+      </c>
+      <c r="H108">
+        <v>44</v>
+      </c>
+      <c r="I108">
+        <v>79</v>
+      </c>
+      <c r="J108">
+        <v>32</v>
+      </c>
+      <c r="K108">
+        <v>63</v>
+      </c>
+      <c r="L108">
+        <v>19</v>
+      </c>
+      <c r="M108">
+        <v>28</v>
+      </c>
+      <c r="N108">
+        <v>8</v>
+      </c>
+      <c r="O108">
+        <v>1.83076923076923</v>
+      </c>
+      <c r="P108">
+        <v>1.84090909090909</v>
+      </c>
+      <c r="Q108">
+        <v>1.82278481012658</v>
+      </c>
+      <c r="R108">
+        <v>1.40625</v>
+      </c>
+      <c r="S108">
+        <v>1.12698412698413</v>
+      </c>
+      <c r="T108">
+        <v>1.31578947368421</v>
+      </c>
+      <c r="U108">
+        <v>1.32142857142857</v>
+      </c>
+      <c r="V108">
+        <v>1.375</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0.668449197860963</v>
+      </c>
+      <c r="Y108">
         <v>2</v>
       </c>
-      <c r="F108">
-        <v>1.11542192046557</v>
-      </c>
-      <c r="G108">
-        <v>49</v>
-      </c>
-      <c r="H108">
-        <v>43</v>
-      </c>
-      <c r="I108">
-        <v>73</v>
-      </c>
-      <c r="J108">
-        <v>17</v>
-      </c>
-      <c r="K108">
-        <v>53</v>
-      </c>
-      <c r="L108">
-        <v>42</v>
-      </c>
-      <c r="M108">
-        <v>32</v>
-      </c>
-      <c r="N108">
-        <v>10</v>
-      </c>
-      <c r="O108">
-        <v>1.87755102040816</v>
-      </c>
-      <c r="P108">
-        <v>1.86046511627907</v>
-      </c>
-      <c r="Q108">
-        <v>1.75342465753425</v>
-      </c>
-      <c r="R108">
-        <v>1.64705882352941</v>
-      </c>
-      <c r="S108">
-        <v>1.11320754716981</v>
-      </c>
-      <c r="T108">
-        <v>1.28571428571429</v>
-      </c>
-      <c r="U108">
-        <v>1.5</v>
-      </c>
-      <c r="V108">
-        <v>1.3</v>
-      </c>
-      <c r="W108">
-        <v>0.00558659217877095</v>
-      </c>
-      <c r="X108">
-        <v>0.664804469273743</v>
-      </c>
-      <c r="Y108">
-        <v>1</v>
-      </c>
       <c r="Z108">
-        <v>0.407821229050279</v>
+        <v>0.459893048128342</v>
       </c>
       <c r="AA108">
-        <v>1.52054794520548</v>
+        <v>1.60240963855422</v>
       </c>
       <c r="AB108">
         <v>1</v>
       </c>
       <c r="AC108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD108">
         <v>1</v>
       </c>
       <c r="AE108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:31">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B109" t="s">
         <v>144</v>
       </c>
       <c r="C109">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109">
-        <v>3338</v>
+        <v>3141</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F109">
-        <v>24.8052726183343</v>
+        <v>21.1397644062401</v>
       </c>
       <c r="G109">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H109">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I109">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J109">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K109">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="L109">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M109">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N109">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O109">
-        <v>1.83076923076923</v>
+        <v>1.63829787234043</v>
       </c>
       <c r="P109">
-        <v>1.84090909090909</v>
+        <v>1.64102564102564</v>
       </c>
       <c r="Q109">
-        <v>1.82278481012658</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="R109">
-        <v>1.40625</v>
+        <v>1.61904761904762</v>
       </c>
       <c r="S109">
-        <v>1.12698412698413</v>
+        <v>1.05769230769231</v>
       </c>
       <c r="T109">
-        <v>1.31578947368421</v>
+        <v>1.38888888888889</v>
       </c>
       <c r="U109">
-        <v>1.32142857142857</v>
+        <v>1.23076923076923</v>
       </c>
       <c r="V109">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="W109">
         <v>0</v>
       </c>
       <c r="X109">
-        <v>0.668449197860963</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="Y109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z109">
-        <v>0.459893048128342</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="AA109">
-        <v>1.60240963855422</v>
+        <v>1.35294117647059</v>
       </c>
       <c r="AB109">
         <v>1</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD109">
         <v>1</v>
       </c>
       <c r="AE109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:31">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B110" t="s">
         <v>145</v>
       </c>
       <c r="C110">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D110">
-        <v>3141</v>
+        <v>2693</v>
       </c>
       <c r="E110">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>21.1397644062401</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I110">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J110">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K110">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L110">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M110">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N110">
         <v>7</v>
       </c>
       <c r="O110">
-        <v>1.63829787234043</v>
+        <v>1.63333333333333</v>
       </c>
       <c r="P110">
-        <v>1.64102564102564</v>
+        <v>1.78787878787879</v>
       </c>
       <c r="Q110">
-        <v>1.66666666666667</v>
+        <v>1.79487179487179</v>
       </c>
       <c r="R110">
-        <v>1.61904761904762</v>
+        <v>1.30769230769231</v>
       </c>
       <c r="S110">
-        <v>1.05769230769231</v>
+        <v>1.01449275362319</v>
       </c>
       <c r="T110">
-        <v>1.38888888888889</v>
+        <v>1.10714285714286</v>
       </c>
       <c r="U110">
-        <v>1.23076923076923</v>
+        <v>1.23333333333333</v>
       </c>
       <c r="V110">
-        <v>1</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="W110">
         <v>0</v>
       </c>
       <c r="X110">
-        <v>0.533333333333333</v>
+        <v>0.568047337278107</v>
       </c>
       <c r="Y110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z110">
-        <v>0.277777777777778</v>
+        <v>0.50887573964497</v>
       </c>
       <c r="AA110">
-        <v>1.35294117647059</v>
+        <v>1.33128834355828</v>
       </c>
       <c r="AB110">
         <v>1</v>
       </c>
       <c r="AC110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD110">
         <v>1</v>
       </c>
       <c r="AE110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:31">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B111" t="s">
         <v>146</v>
       </c>
       <c r="C111">
+        <v>15</v>
+      </c>
+      <c r="D111">
+        <v>3024</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>35</v>
+      </c>
+      <c r="H111">
+        <v>55</v>
+      </c>
+      <c r="I111">
+        <v>61</v>
+      </c>
+      <c r="J111">
+        <v>18</v>
+      </c>
+      <c r="K111">
+        <v>47</v>
+      </c>
+      <c r="L111">
         <v>14</v>
       </c>
-      <c r="D111">
-        <v>2693</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>30</v>
-      </c>
-      <c r="H111">
-        <v>33</v>
-      </c>
-      <c r="I111">
-        <v>78</v>
-      </c>
-      <c r="J111">
-        <v>13</v>
-      </c>
-      <c r="K111">
-        <v>69</v>
-      </c>
-      <c r="L111">
-        <v>28</v>
-      </c>
       <c r="M111">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N111">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O111">
-        <v>1.63333333333333</v>
+        <v>1.77142857142857</v>
       </c>
       <c r="P111">
-        <v>1.78787878787879</v>
+        <v>1.78181818181818</v>
       </c>
       <c r="Q111">
-        <v>1.79487179487179</v>
+        <v>1.80327868852459</v>
       </c>
       <c r="R111">
-        <v>1.30769230769231</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="S111">
-        <v>1.01449275362319</v>
+        <v>0.787234042553192</v>
       </c>
       <c r="T111">
-        <v>1.10714285714286</v>
+        <v>1.35714285714286</v>
       </c>
       <c r="U111">
-        <v>1.23333333333333</v>
+        <v>1.11111111111111</v>
       </c>
       <c r="V111">
-        <v>1.14285714285714</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="W111">
-        <v>0</v>
+        <v>0.00574712643678161</v>
       </c>
       <c r="X111">
-        <v>0.568047337278107</v>
+        <v>0.574712643678161</v>
       </c>
       <c r="Y111">
+        <v>3</v>
+      </c>
+      <c r="Z111">
+        <v>0.275862068965517</v>
+      </c>
+      <c r="AA111">
+        <v>1.19753086419753</v>
+      </c>
+      <c r="AB111">
         <v>2</v>
-      </c>
-      <c r="Z111">
-        <v>0.50887573964497</v>
-      </c>
-      <c r="AA111">
-        <v>1.33128834355828</v>
-      </c>
-      <c r="AB111">
-        <v>1</v>
       </c>
       <c r="AC111">
         <v>1</v>
@@ -12167,180 +12158,180 @@
     </row>
     <row r="112" spans="1:31">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
         <v>147</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D112">
-        <v>3024</v>
+        <v>3704</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H112">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I112">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="J112">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K112">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L112">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M112">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N112">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O112">
-        <v>1.77142857142857</v>
+        <v>1.86</v>
       </c>
       <c r="P112">
-        <v>1.78181818181818</v>
+        <v>1.77777777777778</v>
       </c>
       <c r="Q112">
-        <v>1.80327868852459</v>
+        <v>1.85393258426966</v>
       </c>
       <c r="R112">
-        <v>1.33333333333333</v>
+        <v>1.78125</v>
       </c>
       <c r="S112">
-        <v>0.787234042553192</v>
+        <v>1.04166666666667</v>
       </c>
       <c r="T112">
-        <v>1.35714285714286</v>
+        <v>1.15151515151515</v>
       </c>
       <c r="U112">
-        <v>1.11111111111111</v>
+        <v>1.34615384615385</v>
       </c>
       <c r="V112">
-        <v>1.66666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="W112">
-        <v>0.00574712643678161</v>
+        <v>0</v>
       </c>
       <c r="X112">
-        <v>0.574712643678161</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="Y112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z112">
-        <v>0.275862068965517</v>
+        <v>0.472527472527473</v>
       </c>
       <c r="AA112">
-        <v>1.19753086419753</v>
+        <v>1.50967741935484</v>
       </c>
       <c r="AB112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:31">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
         <v>148</v>
       </c>
       <c r="C113">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D113">
-        <v>3704</v>
+        <v>3697</v>
       </c>
       <c r="E113">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H113">
+        <v>33</v>
+      </c>
+      <c r="I113">
+        <v>85</v>
+      </c>
+      <c r="J113">
+        <v>22</v>
+      </c>
+      <c r="K113">
+        <v>57</v>
+      </c>
+      <c r="L113">
+        <v>39</v>
+      </c>
+      <c r="M113">
         <v>27</v>
       </c>
-      <c r="I113">
-        <v>89</v>
-      </c>
-      <c r="J113">
-        <v>32</v>
-      </c>
-      <c r="K113">
-        <v>48</v>
-      </c>
-      <c r="L113">
-        <v>33</v>
-      </c>
-      <c r="M113">
-        <v>26</v>
-      </c>
       <c r="N113">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O113">
-        <v>1.86</v>
+        <v>1.82692307692308</v>
       </c>
       <c r="P113">
-        <v>1.77777777777778</v>
+        <v>1.72727272727273</v>
       </c>
       <c r="Q113">
-        <v>1.85393258426966</v>
+        <v>1.75294117647059</v>
       </c>
       <c r="R113">
-        <v>1.78125</v>
+        <v>1.59090909090909</v>
       </c>
       <c r="S113">
-        <v>1.04166666666667</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="T113">
-        <v>1.15151515151515</v>
+        <v>1.17948717948718</v>
       </c>
       <c r="U113">
-        <v>1.34615384615385</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="V113">
-        <v>1.25</v>
+        <v>1.61538461538461</v>
       </c>
       <c r="W113">
-        <v>0</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="X113">
-        <v>0.615384615384615</v>
+        <v>0.568181818181818</v>
       </c>
       <c r="Y113">
         <v>2</v>
       </c>
       <c r="Z113">
-        <v>0.472527472527473</v>
+        <v>0.397727272727273</v>
       </c>
       <c r="AA113">
-        <v>1.50967741935484</v>
+        <v>1.32867132867133</v>
       </c>
       <c r="AB113">
         <v>0</v>
@@ -12357,284 +12348,284 @@
     </row>
     <row r="114" spans="1:31">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
         <v>149</v>
       </c>
       <c r="C114">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D114">
-        <v>3697</v>
+        <v>3611</v>
       </c>
       <c r="E114">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>9.85876488507339</v>
       </c>
       <c r="G114">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H114">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I114">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J114">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K114">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="L114">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M114">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N114">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O114">
-        <v>1.82692307692308</v>
+        <v>1.82222222222222</v>
       </c>
       <c r="P114">
+        <v>1.76315789473684</v>
+      </c>
+      <c r="Q114">
         <v>1.72727272727273</v>
       </c>
-      <c r="Q114">
-        <v>1.75294117647059</v>
-      </c>
       <c r="R114">
-        <v>1.59090909090909</v>
+        <v>1.32</v>
       </c>
       <c r="S114">
-        <v>0.842105263157895</v>
+        <v>1</v>
       </c>
       <c r="T114">
-        <v>1.17948717948718</v>
+        <v>1.15789473684211</v>
       </c>
       <c r="U114">
-        <v>1.33333333333333</v>
+        <v>1.20689655172414</v>
       </c>
       <c r="V114">
-        <v>1.61538461538461</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="W114">
-        <v>0.0113636363636364</v>
+        <v>0.00512820512820513</v>
       </c>
       <c r="X114">
-        <v>0.568181818181818</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="Y114">
         <v>2</v>
       </c>
       <c r="Z114">
-        <v>0.397727272727273</v>
+        <v>0.369230769230769</v>
       </c>
       <c r="AA114">
-        <v>1.32867132867133</v>
+        <v>1.30821917808219</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:31">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
         <v>150</v>
       </c>
       <c r="C115">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D115">
-        <v>3611</v>
+        <v>3016</v>
       </c>
       <c r="E115">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>9.85876488507339</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H115">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I115">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="J115">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K115">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="L115">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M115">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="N115">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O115">
-        <v>1.82222222222222</v>
+        <v>1.82857142857143</v>
       </c>
       <c r="P115">
-        <v>1.76315789473684</v>
+        <v>1.80769230769231</v>
       </c>
       <c r="Q115">
-        <v>1.72727272727273</v>
+        <v>1.83098591549296</v>
       </c>
       <c r="R115">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="S115">
-        <v>1</v>
+        <v>0.730769230769231</v>
       </c>
       <c r="T115">
-        <v>1.15789473684211</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="U115">
-        <v>1.20689655172414</v>
+        <v>1.22222222222222</v>
       </c>
       <c r="V115">
-        <v>1.36363636363636</v>
+        <v>1.5</v>
       </c>
       <c r="W115">
-        <v>0.00512820512820513</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="X115">
-        <v>0.564102564102564</v>
+        <v>0.658730158730159</v>
       </c>
       <c r="Y115">
         <v>2</v>
       </c>
       <c r="Z115">
-        <v>0.369230769230769</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="AA115">
-        <v>1.30821917808219</v>
+        <v>1.57894736842105</v>
       </c>
       <c r="AB115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD115">
         <v>1</v>
       </c>
       <c r="AE115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:31">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
         <v>151</v>
       </c>
       <c r="C116">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116">
-        <v>3016</v>
+        <v>3251</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.338357428483543</v>
       </c>
       <c r="G116">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H116">
+        <v>23</v>
+      </c>
+      <c r="I116">
+        <v>60</v>
+      </c>
+      <c r="J116">
         <v>26</v>
       </c>
-      <c r="I116">
-        <v>71</v>
-      </c>
-      <c r="J116">
-        <v>22</v>
-      </c>
       <c r="K116">
+        <v>34</v>
+      </c>
+      <c r="L116">
         <v>26</v>
       </c>
-      <c r="L116">
-        <v>7</v>
-      </c>
       <c r="M116">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N116">
         <v>8</v>
       </c>
       <c r="O116">
-        <v>1.82857142857143</v>
+        <v>1.82222222222222</v>
       </c>
       <c r="P116">
-        <v>1.80769230769231</v>
+        <v>1.73913043478261</v>
       </c>
       <c r="Q116">
-        <v>1.83098591549296</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="R116">
-        <v>1.5</v>
+        <v>1.65384615384615</v>
       </c>
       <c r="S116">
-        <v>0.730769230769231</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="T116">
-        <v>1.14285714285714</v>
+        <v>1.19230769230769</v>
       </c>
       <c r="U116">
-        <v>1.22222222222222</v>
+        <v>1.26666666666667</v>
       </c>
       <c r="V116">
         <v>1.5</v>
       </c>
       <c r="W116">
-        <v>0.00793650793650794</v>
+        <v>0.00763358778625954</v>
       </c>
       <c r="X116">
-        <v>0.658730158730159</v>
+        <v>0.66412213740458</v>
       </c>
       <c r="Y116">
         <v>2</v>
       </c>
       <c r="Z116">
-        <v>0.253968253968254</v>
+        <v>0.412213740458015</v>
       </c>
       <c r="AA116">
-        <v>1.57894736842105</v>
+        <v>1.41052631578947</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC116">
         <v>0</v>
       </c>
       <c r="AD116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE116">
         <v>0</v>
@@ -12642,370 +12633,370 @@
     </row>
     <row r="117" spans="1:31">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B117" t="s">
         <v>152</v>
       </c>
       <c r="C117">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D117">
-        <v>3251</v>
+        <v>3685</v>
       </c>
       <c r="E117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>0.338357428483543</v>
+        <v>32.6458616010855</v>
       </c>
       <c r="G117">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I117">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J117">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K117">
+        <v>73</v>
+      </c>
+      <c r="L117">
         <v>34</v>
       </c>
-      <c r="L117">
-        <v>26</v>
-      </c>
       <c r="M117">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N117">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O117">
-        <v>1.82222222222222</v>
+        <v>1.65</v>
       </c>
       <c r="P117">
-        <v>1.73913043478261</v>
+        <v>1.62068965517241</v>
       </c>
       <c r="Q117">
-        <v>1.91666666666667</v>
+        <v>1.72881355932203</v>
       </c>
       <c r="R117">
-        <v>1.65384615384615</v>
+        <v>1.22222222222222</v>
       </c>
       <c r="S117">
-        <v>0.911764705882353</v>
+        <v>1.01369863013699</v>
       </c>
       <c r="T117">
-        <v>1.19230769230769</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="U117">
-        <v>1.26666666666667</v>
+        <v>1.28260869565217</v>
       </c>
       <c r="V117">
-        <v>1.5</v>
+        <v>1.44444444444444</v>
       </c>
       <c r="W117">
-        <v>0.00763358778625954</v>
+        <v>0</v>
       </c>
       <c r="X117">
-        <v>0.66412213740458</v>
+        <v>0.468926553672316</v>
       </c>
       <c r="Y117">
         <v>2</v>
       </c>
       <c r="Z117">
-        <v>0.412213740458015</v>
+        <v>0.418079096045198</v>
       </c>
       <c r="AA117">
-        <v>1.41052631578947</v>
+        <v>1.29197080291971</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:31">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s">
         <v>153</v>
       </c>
       <c r="C118">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D118">
-        <v>3685</v>
+        <v>3120</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F118">
-        <v>32.6458616010855</v>
+        <v>2.5</v>
       </c>
       <c r="G118">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H118">
+        <v>38</v>
+      </c>
+      <c r="I118">
+        <v>50</v>
+      </c>
+      <c r="J118">
+        <v>20</v>
+      </c>
+      <c r="K118">
+        <v>53</v>
+      </c>
+      <c r="L118">
         <v>29</v>
       </c>
-      <c r="I118">
-        <v>59</v>
-      </c>
-      <c r="J118">
-        <v>9</v>
-      </c>
-      <c r="K118">
-        <v>73</v>
-      </c>
-      <c r="L118">
-        <v>34</v>
-      </c>
       <c r="M118">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N118">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O118">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="P118">
-        <v>1.62068965517241</v>
+        <v>1.73684210526316</v>
       </c>
       <c r="Q118">
-        <v>1.72881355932203</v>
+        <v>1.72</v>
       </c>
       <c r="R118">
-        <v>1.22222222222222</v>
+        <v>1.2</v>
       </c>
       <c r="S118">
-        <v>1.01369863013699</v>
+        <v>0.962264150943396</v>
       </c>
       <c r="T118">
-        <v>1.17647058823529</v>
+        <v>1.27586206896552</v>
       </c>
       <c r="U118">
-        <v>1.28260869565217</v>
+        <v>1.34210526315789</v>
       </c>
       <c r="V118">
-        <v>1.44444444444444</v>
+        <v>1.58333333333333</v>
       </c>
       <c r="W118">
-        <v>0</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="X118">
-        <v>0.468926553672316</v>
+        <v>0.502994011976048</v>
       </c>
       <c r="Y118">
         <v>2</v>
       </c>
       <c r="Z118">
-        <v>0.418079096045198</v>
+        <v>0.538922155688623</v>
       </c>
       <c r="AA118">
-        <v>1.29197080291971</v>
+        <v>1.25333333333333</v>
       </c>
       <c r="AB118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD118">
         <v>1</v>
       </c>
       <c r="AE118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:31">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
         <v>154</v>
       </c>
       <c r="C119">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D119">
-        <v>3120</v>
+        <v>4203</v>
       </c>
       <c r="E119">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F119">
-        <v>2.5</v>
+        <v>20.1998572448251</v>
       </c>
       <c r="G119">
+        <v>68</v>
+      </c>
+      <c r="H119">
+        <v>47</v>
+      </c>
+      <c r="I119">
+        <v>95</v>
+      </c>
+      <c r="J119">
         <v>25</v>
       </c>
-      <c r="H119">
-        <v>38</v>
-      </c>
-      <c r="I119">
-        <v>50</v>
-      </c>
-      <c r="J119">
-        <v>20</v>
-      </c>
       <c r="K119">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L119">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M119">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="N119">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O119">
-        <v>1.84</v>
+        <v>1.69117647058824</v>
       </c>
       <c r="P119">
-        <v>1.73684210526316</v>
+        <v>1.63829787234043</v>
       </c>
       <c r="Q119">
-        <v>1.72</v>
+        <v>1.84210526315789</v>
       </c>
       <c r="R119">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="S119">
-        <v>0.962264150943396</v>
+        <v>0.845238095238095</v>
       </c>
       <c r="T119">
-        <v>1.27586206896552</v>
+        <v>1.18181818181818</v>
       </c>
       <c r="U119">
-        <v>1.34210526315789</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="V119">
-        <v>1.58333333333333</v>
+        <v>1.41176470588235</v>
       </c>
       <c r="W119">
-        <v>0.0119760479041916</v>
+        <v>0.00775193798449612</v>
       </c>
       <c r="X119">
-        <v>0.502994011976048</v>
+        <v>0.542635658914729</v>
       </c>
       <c r="Y119">
         <v>2</v>
       </c>
       <c r="Z119">
-        <v>0.538922155688623</v>
+        <v>0.375968992248062</v>
       </c>
       <c r="AA119">
-        <v>1.25333333333333</v>
+        <v>1.25465838509317</v>
       </c>
       <c r="AB119">
         <v>2</v>
       </c>
       <c r="AC119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD119">
         <v>1</v>
       </c>
       <c r="AE119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:31">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B120" t="s">
         <v>155</v>
       </c>
       <c r="C120">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D120">
-        <v>4203</v>
+        <v>4005</v>
       </c>
       <c r="E120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>20.1998572448251</v>
+        <v>1.64794007490637</v>
       </c>
       <c r="G120">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="H120">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I120">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="J120">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K120">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="L120">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M120">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="N120">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O120">
-        <v>1.69117647058824</v>
+        <v>1.75</v>
       </c>
       <c r="P120">
-        <v>1.63829787234043</v>
+        <v>1.73015873015873</v>
       </c>
       <c r="Q120">
-        <v>1.84210526315789</v>
+        <v>1.84</v>
       </c>
       <c r="R120">
-        <v>1.44</v>
+        <v>1.23076923076923</v>
       </c>
       <c r="S120">
-        <v>0.845238095238095</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="T120">
-        <v>1.18181818181818</v>
+        <v>1.16666666666667</v>
       </c>
       <c r="U120">
-        <v>1.23809523809524</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="V120">
-        <v>1.41176470588235</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="W120">
-        <v>0.00775193798449612</v>
+        <v>0.00985221674876847</v>
       </c>
       <c r="X120">
-        <v>0.542635658914729</v>
+        <v>0.610837438423645</v>
       </c>
       <c r="Y120">
         <v>2</v>
       </c>
       <c r="Z120">
-        <v>0.375968992248062</v>
+        <v>0.32512315270936</v>
       </c>
       <c r="AA120">
-        <v>1.25465838509317</v>
+        <v>1.28925619834711</v>
       </c>
       <c r="AB120">
         <v>2</v>
@@ -13022,180 +13013,180 @@
     </row>
     <row r="121" spans="1:31">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B121" t="s">
         <v>156</v>
       </c>
       <c r="C121">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D121">
-        <v>4005</v>
+        <v>3411</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.64794007490637</v>
+        <v>4.69070653767224</v>
       </c>
       <c r="G121">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H121">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I121">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="J121">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K121">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L121">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M121">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N121">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O121">
-        <v>1.75</v>
+        <v>1.7037037037037</v>
       </c>
       <c r="P121">
-        <v>1.73015873015873</v>
+        <v>1.63157894736842</v>
       </c>
       <c r="Q121">
-        <v>1.84</v>
+        <v>1.78846153846154</v>
       </c>
       <c r="R121">
-        <v>1.23076923076923</v>
+        <v>1.53333333333333</v>
       </c>
       <c r="S121">
-        <v>0.929824561403509</v>
+        <v>1.06666666666667</v>
       </c>
       <c r="T121">
-        <v>1.16666666666667</v>
+        <v>1.03125</v>
       </c>
       <c r="U121">
-        <v>1.27272727272727</v>
+        <v>1.27586206896552</v>
       </c>
       <c r="V121">
-        <v>1.66666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="W121">
-        <v>0.00985221674876847</v>
+        <v>0.0132450331125828</v>
       </c>
       <c r="X121">
-        <v>0.610837438423645</v>
+        <v>0.549668874172185</v>
       </c>
       <c r="Y121">
         <v>2</v>
       </c>
       <c r="Z121">
-        <v>0.32512315270936</v>
+        <v>0.463576158940397</v>
       </c>
       <c r="AA121">
-        <v>1.28925619834711</v>
+        <v>1.3046875</v>
       </c>
       <c r="AB121">
         <v>2</v>
       </c>
       <c r="AC121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD121">
         <v>1</v>
       </c>
       <c r="AE121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:31">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B122" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C122">
+        <v>11</v>
+      </c>
+      <c r="D122">
+        <v>2415</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>16.7701863354037</v>
+      </c>
+      <c r="G122">
+        <v>42</v>
+      </c>
+      <c r="H122">
+        <v>37</v>
+      </c>
+      <c r="I122">
+        <v>73</v>
+      </c>
+      <c r="J122">
+        <v>28</v>
+      </c>
+      <c r="K122">
+        <v>40</v>
+      </c>
+      <c r="L122">
         <v>12</v>
       </c>
-      <c r="D122">
-        <v>3411</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>4.69070653767224</v>
-      </c>
-      <c r="G122">
-        <v>27</v>
-      </c>
-      <c r="H122">
-        <v>38</v>
-      </c>
-      <c r="I122">
-        <v>52</v>
-      </c>
-      <c r="J122">
-        <v>15</v>
-      </c>
-      <c r="K122">
-        <v>60</v>
-      </c>
-      <c r="L122">
-        <v>32</v>
-      </c>
       <c r="M122">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N122">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O122">
-        <v>1.7037037037037</v>
+        <v>1.73809523809524</v>
       </c>
       <c r="P122">
-        <v>1.63157894736842</v>
+        <v>1.75675675675676</v>
       </c>
       <c r="Q122">
-        <v>1.78846153846154</v>
+        <v>1.83561643835616</v>
       </c>
       <c r="R122">
-        <v>1.53333333333333</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="S122">
-        <v>1.06666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="T122">
-        <v>1.03125</v>
+        <v>1.25</v>
       </c>
       <c r="U122">
-        <v>1.27586206896552</v>
+        <v>1.25</v>
       </c>
       <c r="V122">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="W122">
-        <v>0.0132450331125828</v>
+        <v>0</v>
       </c>
       <c r="X122">
-        <v>0.549668874172185</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="Y122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z122">
-        <v>0.463576158940397</v>
+        <v>0.252873563218391</v>
       </c>
       <c r="AA122">
-        <v>1.3046875</v>
+        <v>1.57575757575758</v>
       </c>
       <c r="AB122">
         <v>2</v>
@@ -13212,88 +13203,88 @@
     </row>
     <row r="123" spans="1:31">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B123" t="s">
         <v>159</v>
       </c>
       <c r="C123">
+        <v>16</v>
+      </c>
+      <c r="D123">
+        <v>3256</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>12.1928746928747</v>
+      </c>
+      <c r="G123">
+        <v>75</v>
+      </c>
+      <c r="H123">
+        <v>65</v>
+      </c>
+      <c r="I123">
+        <v>115</v>
+      </c>
+      <c r="J123">
+        <v>45</v>
+      </c>
+      <c r="K123">
+        <v>75</v>
+      </c>
+      <c r="L123">
+        <v>38</v>
+      </c>
+      <c r="M123">
+        <v>64</v>
+      </c>
+      <c r="N123">
         <v>11</v>
       </c>
-      <c r="D123">
-        <v>2415</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>16.7701863354037</v>
-      </c>
-      <c r="G123">
-        <v>42</v>
-      </c>
-      <c r="H123">
-        <v>37</v>
-      </c>
-      <c r="I123">
-        <v>73</v>
-      </c>
-      <c r="J123">
-        <v>28</v>
-      </c>
-      <c r="K123">
-        <v>40</v>
-      </c>
-      <c r="L123">
-        <v>12</v>
-      </c>
-      <c r="M123">
-        <v>20</v>
-      </c>
-      <c r="N123">
-        <v>4</v>
-      </c>
       <c r="O123">
-        <v>1.73809523809524</v>
+        <v>1.34666666666667</v>
       </c>
       <c r="P123">
-        <v>1.75675675675676</v>
+        <v>1.46153846153846</v>
       </c>
       <c r="Q123">
-        <v>1.83561643835616</v>
+        <v>1.6</v>
       </c>
       <c r="R123">
-        <v>1.71428571428571</v>
+        <v>1.08888888888889</v>
       </c>
       <c r="S123">
-        <v>0.625</v>
+        <v>0.8</v>
       </c>
       <c r="T123">
-        <v>1.25</v>
+        <v>1.05263157894737</v>
       </c>
       <c r="U123">
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="V123">
-        <v>1</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="W123">
-        <v>0</v>
+        <v>0.00864553314121038</v>
       </c>
       <c r="X123">
-        <v>0.586206896551724</v>
+        <v>0.360230547550432</v>
       </c>
       <c r="Y123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z123">
-        <v>0.252873563218391</v>
+        <v>0.394812680115274</v>
       </c>
       <c r="AA123">
-        <v>1.57575757575758</v>
+        <v>1.03191489361702</v>
       </c>
       <c r="AB123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -13307,183 +13298,183 @@
     </row>
     <row r="124" spans="1:31">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B124" t="s">
         <v>160</v>
       </c>
       <c r="C124">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D124">
-        <v>3256</v>
+        <v>5667</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>12.1928746928747</v>
+        <v>36.2802188106582</v>
       </c>
       <c r="G124">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H124">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I124">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J124">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K124">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="L124">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M124">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="N124">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O124">
-        <v>1.34666666666667</v>
+        <v>1.8</v>
       </c>
       <c r="P124">
-        <v>1.46153846153846</v>
+        <v>1.69565217391304</v>
       </c>
       <c r="Q124">
-        <v>1.6</v>
+        <v>1.775</v>
       </c>
       <c r="R124">
-        <v>1.08888888888889</v>
+        <v>1.5</v>
       </c>
       <c r="S124">
-        <v>0.8</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="T124">
-        <v>1.05263157894737</v>
+        <v>1.11627906976744</v>
       </c>
       <c r="U124">
-        <v>1.125</v>
+        <v>1.25974025974026</v>
       </c>
       <c r="V124">
-        <v>1.27272727272727</v>
+        <v>1.26666666666667</v>
       </c>
       <c r="W124">
-        <v>0.00864553314121038</v>
+        <v>0.00294985250737463</v>
       </c>
       <c r="X124">
-        <v>0.360230547550432</v>
+        <v>0.457227138643068</v>
       </c>
       <c r="Y124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z124">
-        <v>0.394812680115274</v>
+        <v>0.259587020648967</v>
       </c>
       <c r="AA124">
-        <v>1.03191489361702</v>
+        <v>1.29054054054054</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD124">
         <v>1</v>
       </c>
       <c r="AE124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:31">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B125" t="s">
         <v>161</v>
       </c>
       <c r="C125">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D125">
-        <v>5667</v>
+        <v>4147</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>36.2802188106582</v>
+        <v>11.5505184470702</v>
       </c>
       <c r="G125">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H125">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I125">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="J125">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K125">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="L125">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M125">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="N125">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O125">
-        <v>1.8</v>
+        <v>1.74418604651163</v>
       </c>
       <c r="P125">
-        <v>1.69565217391304</v>
+        <v>1.63157894736842</v>
       </c>
       <c r="Q125">
-        <v>1.775</v>
+        <v>1.75824175824176</v>
       </c>
       <c r="R125">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="S125">
-        <v>0.863636363636364</v>
+        <v>0.950819672131147</v>
       </c>
       <c r="T125">
-        <v>1.11627906976744</v>
+        <v>1.15151515151515</v>
       </c>
       <c r="U125">
-        <v>1.25974025974026</v>
+        <v>1.22857142857143</v>
       </c>
       <c r="V125">
-        <v>1.26666666666667</v>
+        <v>1.4375</v>
       </c>
       <c r="W125">
-        <v>0.00294985250737463</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="X125">
-        <v>0.457227138643068</v>
+        <v>0.475409836065574</v>
       </c>
       <c r="Y125">
         <v>3</v>
       </c>
       <c r="Z125">
-        <v>0.259587020648967</v>
+        <v>0.450819672131147</v>
       </c>
       <c r="AA125">
-        <v>1.29054054054054</v>
+        <v>1.31764705882353</v>
       </c>
       <c r="AB125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC125">
         <v>1</v>
@@ -13497,88 +13488,88 @@
     </row>
     <row r="126" spans="1:31">
       <c r="A126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B126" t="s">
         <v>162</v>
       </c>
       <c r="C126">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D126">
-        <v>4147</v>
+        <v>5371</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>11.5505184470702</v>
+        <v>89.815676782722</v>
       </c>
       <c r="G126">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H126">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I126">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="J126">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K126">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="L126">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M126">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="N126">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O126">
-        <v>1.74418604651163</v>
+        <v>1.62903225806452</v>
       </c>
       <c r="P126">
-        <v>1.63157894736842</v>
+        <v>1.58441558441558</v>
       </c>
       <c r="Q126">
-        <v>1.75824175824176</v>
+        <v>1.77397260273973</v>
       </c>
       <c r="R126">
-        <v>1.64</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="S126">
-        <v>0.950819672131147</v>
+        <v>0.824074074074074</v>
       </c>
       <c r="T126">
-        <v>1.15151515151515</v>
+        <v>1.11428571428571</v>
       </c>
       <c r="U126">
-        <v>1.22857142857143</v>
+        <v>1.15909090909091</v>
       </c>
       <c r="V126">
-        <v>1.4375</v>
+        <v>1.28571428571429</v>
       </c>
       <c r="W126">
-        <v>0.00819672131147541</v>
+        <v>0.00523560209424084</v>
       </c>
       <c r="X126">
-        <v>0.475409836065574</v>
+        <v>0.458115183246073</v>
       </c>
       <c r="Y126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z126">
-        <v>0.450819672131147</v>
+        <v>0.243455497382199</v>
       </c>
       <c r="AA126">
-        <v>1.31764705882353</v>
+        <v>1.26451612903226</v>
       </c>
       <c r="AB126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC126">
         <v>1</v>
@@ -13592,88 +13583,88 @@
     </row>
     <row r="127" spans="1:31">
       <c r="A127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B127" t="s">
         <v>163</v>
       </c>
       <c r="C127">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D127">
-        <v>5371</v>
+        <v>3810</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>89.815676782722</v>
+        <v>28.241469816273</v>
       </c>
       <c r="G127">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="H127">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I127">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="J127">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="K127">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="L127">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M127">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="N127">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O127">
-        <v>1.62903225806452</v>
+        <v>1.69444444444444</v>
       </c>
       <c r="P127">
-        <v>1.58441558441558</v>
+        <v>1.79310344827586</v>
       </c>
       <c r="Q127">
-        <v>1.77397260273973</v>
+        <v>1.9</v>
       </c>
       <c r="R127">
-        <v>1.36363636363636</v>
+        <v>1.77272727272727</v>
       </c>
       <c r="S127">
-        <v>0.824074074074074</v>
+        <v>1.1</v>
       </c>
       <c r="T127">
-        <v>1.11428571428571</v>
+        <v>1.25</v>
       </c>
       <c r="U127">
-        <v>1.15909090909091</v>
+        <v>1.36585365853659</v>
       </c>
       <c r="V127">
-        <v>1.28571428571429</v>
+        <v>1.76923076923077</v>
       </c>
       <c r="W127">
-        <v>0.00523560209424084</v>
+        <v>0</v>
       </c>
       <c r="X127">
-        <v>0.458115183246073</v>
+        <v>0.628378378378378</v>
       </c>
       <c r="Y127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z127">
-        <v>0.243455497382199</v>
+        <v>0.445945945945946</v>
       </c>
       <c r="AA127">
-        <v>1.26451612903226</v>
+        <v>1.48201438848921</v>
       </c>
       <c r="AB127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC127">
         <v>1</v>
@@ -13687,278 +13678,278 @@
     </row>
     <row r="128" spans="1:31">
       <c r="A128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B128" t="s">
         <v>164</v>
       </c>
       <c r="C128">
+        <v>12</v>
+      </c>
+      <c r="D128">
+        <v>3450</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>53</v>
+      </c>
+      <c r="H128">
+        <v>35</v>
+      </c>
+      <c r="I128">
+        <v>95</v>
+      </c>
+      <c r="J128">
+        <v>36</v>
+      </c>
+      <c r="K128">
+        <v>65</v>
+      </c>
+      <c r="L128">
+        <v>33</v>
+      </c>
+      <c r="M128">
+        <v>37</v>
+      </c>
+      <c r="N128">
         <v>10</v>
       </c>
-      <c r="D128">
-        <v>3810</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>28.241469816273</v>
-      </c>
-      <c r="G128">
-        <v>36</v>
-      </c>
-      <c r="H128">
-        <v>29</v>
-      </c>
-      <c r="I128">
-        <v>60</v>
-      </c>
-      <c r="J128">
-        <v>22</v>
-      </c>
-      <c r="K128">
-        <v>50</v>
-      </c>
-      <c r="L128">
-        <v>24</v>
-      </c>
-      <c r="M128">
-        <v>41</v>
-      </c>
-      <c r="N128">
-        <v>13</v>
-      </c>
       <c r="O128">
-        <v>1.69444444444444</v>
+        <v>1.73584905660377</v>
       </c>
       <c r="P128">
-        <v>1.79310344827586</v>
+        <v>1.94285714285714</v>
       </c>
       <c r="Q128">
-        <v>1.9</v>
+        <v>1.82105263157895</v>
       </c>
       <c r="R128">
-        <v>1.77272727272727</v>
+        <v>1.30555555555556</v>
       </c>
       <c r="S128">
-        <v>1.1</v>
+        <v>1.06153846153846</v>
       </c>
       <c r="T128">
-        <v>1.25</v>
+        <v>1.09090909090909</v>
       </c>
       <c r="U128">
-        <v>1.36585365853659</v>
+        <v>1.21621621621622</v>
       </c>
       <c r="V128">
-        <v>1.76923076923077</v>
+        <v>1.7</v>
       </c>
       <c r="W128">
         <v>0</v>
       </c>
       <c r="X128">
-        <v>0.628378378378378</v>
+        <v>0.570776255707763</v>
       </c>
       <c r="Y128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z128">
-        <v>0.445945945945946</v>
+        <v>0.392694063926941</v>
       </c>
       <c r="AA128">
-        <v>1.48201438848921</v>
+        <v>1.36305732484076</v>
       </c>
       <c r="AB128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:31">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B129" t="s">
         <v>165</v>
       </c>
       <c r="C129">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D129">
-        <v>3450</v>
+        <v>3877</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>5.08124838792881</v>
       </c>
       <c r="G129">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H129">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I129">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J129">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K129">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="L129">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M129">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N129">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O129">
-        <v>1.73584905660377</v>
+        <v>1.74468085106383</v>
       </c>
       <c r="P129">
-        <v>1.94285714285714</v>
+        <v>1.80555555555556</v>
       </c>
       <c r="Q129">
-        <v>1.82105263157895</v>
+        <v>1.75268817204301</v>
       </c>
       <c r="R129">
-        <v>1.30555555555556</v>
+        <v>1.77777777777778</v>
       </c>
       <c r="S129">
-        <v>1.06153846153846</v>
+        <v>1.04651162790698</v>
       </c>
       <c r="T129">
-        <v>1.09090909090909</v>
+        <v>1.21739130434783</v>
       </c>
       <c r="U129">
-        <v>1.21621621621622</v>
+        <v>1.29032258064516</v>
       </c>
       <c r="V129">
-        <v>1.7</v>
+        <v>1.375</v>
       </c>
       <c r="W129">
         <v>0</v>
       </c>
       <c r="X129">
-        <v>0.570776255707763</v>
+        <v>0.620320855614973</v>
       </c>
       <c r="Y129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z129">
-        <v>0.392694063926941</v>
+        <v>0.32620320855615</v>
       </c>
       <c r="AA129">
-        <v>1.36305732484076</v>
+        <v>1.61111111111111</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:31">
       <c r="A130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B130" t="s">
         <v>166</v>
       </c>
       <c r="C130">
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <v>3835</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>13.1681877444589</v>
+      </c>
+      <c r="G130">
+        <v>56</v>
+      </c>
+      <c r="H130">
+        <v>54</v>
+      </c>
+      <c r="I130">
+        <v>100</v>
+      </c>
+      <c r="J130">
+        <v>31</v>
+      </c>
+      <c r="K130">
+        <v>64</v>
+      </c>
+      <c r="L130">
+        <v>43</v>
+      </c>
+      <c r="M130">
+        <v>49</v>
+      </c>
+      <c r="N130">
         <v>16</v>
       </c>
-      <c r="D130">
-        <v>3877</v>
-      </c>
-      <c r="E130">
-        <v>13</v>
-      </c>
-      <c r="F130">
-        <v>5.08124838792881</v>
-      </c>
-      <c r="G130">
-        <v>47</v>
-      </c>
-      <c r="H130">
-        <v>36</v>
-      </c>
-      <c r="I130">
-        <v>93</v>
-      </c>
-      <c r="J130">
-        <v>27</v>
-      </c>
-      <c r="K130">
-        <v>43</v>
-      </c>
-      <c r="L130">
-        <v>23</v>
-      </c>
-      <c r="M130">
-        <v>31</v>
-      </c>
-      <c r="N130">
-        <v>8</v>
-      </c>
       <c r="O130">
-        <v>1.74468085106383</v>
+        <v>1.66071428571429</v>
       </c>
       <c r="P130">
-        <v>1.80555555555556</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="Q130">
-        <v>1.75268817204301</v>
+        <v>1.71</v>
       </c>
       <c r="R130">
-        <v>1.77777777777778</v>
+        <v>1.16129032258065</v>
       </c>
       <c r="S130">
-        <v>1.04651162790698</v>
+        <v>0.640625</v>
       </c>
       <c r="T130">
-        <v>1.21739130434783</v>
+        <v>1.09302325581395</v>
       </c>
       <c r="U130">
-        <v>1.29032258064516</v>
+        <v>1.18367346938776</v>
       </c>
       <c r="V130">
-        <v>1.375</v>
+        <v>1.4375</v>
       </c>
       <c r="W130">
-        <v>0</v>
+        <v>0.0036231884057971</v>
       </c>
       <c r="X130">
-        <v>0.620320855614973</v>
+        <v>0.423913043478261</v>
       </c>
       <c r="Y130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z130">
-        <v>0.32620320855615</v>
+        <v>0.402173913043478</v>
       </c>
       <c r="AA130">
-        <v>1.61111111111111</v>
+        <v>1.18562874251497</v>
       </c>
       <c r="AB130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC130">
         <v>1</v>
@@ -13972,379 +13963,379 @@
     </row>
     <row r="131" spans="1:31">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B131" t="s">
         <v>167</v>
       </c>
       <c r="C131">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D131">
-        <v>3835</v>
+        <v>5822</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
-        <v>13.1681877444589</v>
+        <v>48.8663689453796</v>
       </c>
       <c r="G131">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="H131">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I131">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="J131">
+        <v>21</v>
+      </c>
+      <c r="K131">
+        <v>80</v>
+      </c>
+      <c r="L131">
         <v>31</v>
       </c>
-      <c r="K131">
-        <v>64</v>
-      </c>
-      <c r="L131">
-        <v>43</v>
-      </c>
       <c r="M131">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="N131">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="O131">
-        <v>1.66071428571429</v>
+        <v>1.71621621621622</v>
       </c>
       <c r="P131">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="Q131">
+        <v>1.77235772357724</v>
+      </c>
+      <c r="R131">
         <v>1.66666666666667</v>
       </c>
-      <c r="Q131">
-        <v>1.71</v>
-      </c>
-      <c r="R131">
-        <v>1.16129032258065</v>
-      </c>
       <c r="S131">
-        <v>0.640625</v>
+        <v>0.725</v>
       </c>
       <c r="T131">
-        <v>1.09302325581395</v>
+        <v>1.03225806451613</v>
       </c>
       <c r="U131">
-        <v>1.18367346938776</v>
+        <v>1.18055555555556</v>
       </c>
       <c r="V131">
-        <v>1.4375</v>
+        <v>1.6</v>
       </c>
       <c r="W131">
-        <v>0.0036231884057971</v>
+        <v>0.00634920634920635</v>
       </c>
       <c r="X131">
-        <v>0.423913043478261</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="Y131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z131">
-        <v>0.402173913043478</v>
+        <v>0.26984126984127</v>
       </c>
       <c r="AA131">
-        <v>1.18562874251497</v>
+        <v>1.22047244094488</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD131">
         <v>1</v>
       </c>
       <c r="AE131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:31">
       <c r="A132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B132" t="s">
         <v>168</v>
       </c>
       <c r="C132">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D132">
-        <v>5822</v>
+        <v>3196</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <v>48.8663689453796</v>
+        <v>19.3679599499374</v>
       </c>
       <c r="G132">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="I132">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="J132">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="L132">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M132">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="N132">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="O132">
-        <v>1.71621621621622</v>
+        <v>1.72972972972973</v>
       </c>
       <c r="P132">
-        <v>1.72727272727273</v>
+        <v>1.375</v>
       </c>
       <c r="Q132">
-        <v>1.77235772357724</v>
+        <v>1.42105263157895</v>
       </c>
       <c r="R132">
-        <v>1.66666666666667</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="S132">
-        <v>0.725</v>
+        <v>1.09345794392523</v>
       </c>
       <c r="T132">
-        <v>1.03225806451613</v>
+        <v>1.13333333333333</v>
       </c>
       <c r="U132">
-        <v>1.18055555555556</v>
+        <v>1.30769230769231</v>
       </c>
       <c r="V132">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="W132">
-        <v>0.00634920634920635</v>
+        <v>0</v>
       </c>
       <c r="X132">
-        <v>0.476190476190476</v>
+        <v>0.441860465116279</v>
       </c>
       <c r="Y132">
         <v>3</v>
       </c>
       <c r="Z132">
-        <v>0.26984126984127</v>
+        <v>0.377906976744186</v>
       </c>
       <c r="AA132">
-        <v>1.22047244094488</v>
+        <v>1.2093023255814</v>
       </c>
       <c r="AB132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD132">
         <v>1</v>
       </c>
       <c r="AE132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:31">
       <c r="A133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B133" t="s">
         <v>169</v>
       </c>
       <c r="C133">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D133">
-        <v>3196</v>
+        <v>3437</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>19.3679599499374</v>
+        <v>8.61216176898458</v>
       </c>
       <c r="G133">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H133">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I133">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="J133">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K133">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="L133">
+        <v>34</v>
+      </c>
+      <c r="M133">
+        <v>44</v>
+      </c>
+      <c r="N133">
         <v>15</v>
       </c>
-      <c r="M133">
-        <v>39</v>
-      </c>
-      <c r="N133">
-        <v>4</v>
-      </c>
       <c r="O133">
-        <v>1.72972972972973</v>
+        <v>1.68965517241379</v>
       </c>
       <c r="P133">
-        <v>1.375</v>
+        <v>1.73170731707317</v>
       </c>
       <c r="Q133">
-        <v>1.42105263157895</v>
+        <v>1.68224299065421</v>
       </c>
       <c r="R133">
-        <v>0.977777777777778</v>
+        <v>1.48484848484849</v>
       </c>
       <c r="S133">
-        <v>1.09345794392523</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="T133">
-        <v>1.13333333333333</v>
+        <v>1.11764705882353</v>
       </c>
       <c r="U133">
-        <v>1.30769230769231</v>
+        <v>1.31818181818182</v>
       </c>
       <c r="V133">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>0.0117647058823529</v>
       </c>
       <c r="X133">
-        <v>0.441860465116279</v>
+        <v>0.525490196078431</v>
       </c>
       <c r="Y133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z133">
-        <v>0.377906976744186</v>
+        <v>0.349019607843137</v>
       </c>
       <c r="AA133">
-        <v>1.2093023255814</v>
+        <v>1.25185185185185</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:31">
       <c r="A134" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B134" t="s">
         <v>170</v>
       </c>
       <c r="C134">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D134">
-        <v>3437</v>
+        <v>3993</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>8.61216176898458</v>
+        <v>14.9511645379414</v>
       </c>
       <c r="G134">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H134">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I134">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="J134">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K134">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L134">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M134">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N134">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O134">
-        <v>1.68965517241379</v>
+        <v>1.72093023255814</v>
       </c>
       <c r="P134">
-        <v>1.73170731707317</v>
+        <v>1.6969696969697</v>
       </c>
       <c r="Q134">
-        <v>1.68224299065421</v>
+        <v>1.76388888888889</v>
       </c>
       <c r="R134">
-        <v>1.48484848484849</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="S134">
-        <v>0.793103448275862</v>
+        <v>1</v>
       </c>
       <c r="T134">
-        <v>1.11764705882353</v>
+        <v>1</v>
       </c>
       <c r="U134">
-        <v>1.31818181818182</v>
+        <v>1.24444444444444</v>
       </c>
       <c r="V134">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="W134">
-        <v>0.0117647058823529</v>
+        <v>0</v>
       </c>
       <c r="X134">
-        <v>0.525490196078431</v>
+        <v>0.50920245398773</v>
       </c>
       <c r="Y134">
         <v>2</v>
       </c>
       <c r="Z134">
-        <v>0.349019607843137</v>
+        <v>0.374233128834356</v>
       </c>
       <c r="AA134">
-        <v>1.25185185185185</v>
+        <v>1.38095238095238</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC134">
         <v>0</v>
       </c>
       <c r="AD134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE134">
         <v>0</v>
@@ -14352,85 +14343,85 @@
     </row>
     <row r="135" spans="1:31">
       <c r="A135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B135" t="s">
         <v>171</v>
       </c>
       <c r="C135">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D135">
-        <v>3993</v>
+        <v>3654</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>14.9511645379414</v>
+        <v>16.8308702791461</v>
       </c>
       <c r="G135">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H135">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I135">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="J135">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K135">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="L135">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M135">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N135">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O135">
-        <v>1.72093023255814</v>
+        <v>1.5</v>
       </c>
       <c r="P135">
-        <v>1.6969696969697</v>
+        <v>1.74074074074074</v>
       </c>
       <c r="Q135">
-        <v>1.76388888888889</v>
+        <v>1.70491803278688</v>
       </c>
       <c r="R135">
-        <v>1.57142857142857</v>
+        <v>1.35294117647059</v>
       </c>
       <c r="S135">
-        <v>1</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="T135">
         <v>1</v>
       </c>
       <c r="U135">
-        <v>1.24444444444444</v>
+        <v>1.31372549019608</v>
       </c>
       <c r="V135">
-        <v>1.2</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>0.0112781954887218</v>
       </c>
       <c r="X135">
-        <v>0.50920245398773</v>
+        <v>0.552631578947368</v>
       </c>
       <c r="Y135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z135">
-        <v>0.374233128834356</v>
+        <v>0.308270676691729</v>
       </c>
       <c r="AA135">
-        <v>1.38095238095238</v>
+        <v>1.34351145038168</v>
       </c>
       <c r="AB135">
         <v>1</v>
@@ -14447,186 +14438,186 @@
     </row>
     <row r="136" spans="1:31">
       <c r="A136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B136" t="s">
         <v>172</v>
       </c>
       <c r="C136">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D136">
-        <v>3654</v>
+        <v>5378</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>16.8308702791461</v>
+        <v>38.9178133134994</v>
       </c>
       <c r="G136">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H136">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I136">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J136">
+        <v>37</v>
+      </c>
+      <c r="K136">
+        <v>81</v>
+      </c>
+      <c r="L136">
         <v>34</v>
       </c>
-      <c r="K136">
-        <v>59</v>
-      </c>
-      <c r="L136">
-        <v>18</v>
-      </c>
       <c r="M136">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N136">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O136">
-        <v>1.5</v>
+        <v>1.80701754385965</v>
       </c>
       <c r="P136">
-        <v>1.74074074074074</v>
+        <v>1.71739130434783</v>
       </c>
       <c r="Q136">
-        <v>1.70491803278688</v>
+        <v>1.72727272727273</v>
       </c>
       <c r="R136">
-        <v>1.35294117647059</v>
+        <v>1.7027027027027</v>
       </c>
       <c r="S136">
-        <v>0.864406779661017</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="T136">
-        <v>1</v>
+        <v>1.02941176470588</v>
       </c>
       <c r="U136">
-        <v>1.31372549019608</v>
+        <v>1.31818181818182</v>
       </c>
       <c r="V136">
-        <v>1.33333333333333</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>0.0112781954887218</v>
+        <v>0.00668896321070234</v>
       </c>
       <c r="X136">
-        <v>0.552631578947368</v>
+        <v>0.51505016722408</v>
       </c>
       <c r="Y136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z136">
-        <v>0.308270676691729</v>
+        <v>0.377926421404682</v>
       </c>
       <c r="AA136">
-        <v>1.34351145038168</v>
+        <v>1.40963855421687</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD136">
         <v>1</v>
       </c>
       <c r="AE136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:31">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B137" t="s">
         <v>173</v>
       </c>
       <c r="C137">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D137">
-        <v>5378</v>
+        <v>5670</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F137">
-        <v>38.9178133134994</v>
+        <v>52.010582010582</v>
       </c>
       <c r="G137">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H137">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I137">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="J137">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K137">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L137">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M137">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="N137">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O137">
-        <v>1.80701754385965</v>
+        <v>1.86486486486486</v>
       </c>
       <c r="P137">
-        <v>1.71739130434783</v>
+        <v>1.92307692307692</v>
       </c>
       <c r="Q137">
-        <v>1.72727272727273</v>
+        <v>1.88636363636364</v>
       </c>
       <c r="R137">
-        <v>1.7027027027027</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="S137">
-        <v>0.888888888888889</v>
+        <v>1.14606741573034</v>
       </c>
       <c r="T137">
-        <v>1.02941176470588</v>
+        <v>1.15094339622642</v>
       </c>
       <c r="U137">
-        <v>1.31818181818182</v>
+        <v>1.32894736842105</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.61538461538461</v>
       </c>
       <c r="W137">
-        <v>0.00668896321070234</v>
+        <v>0.00444444444444444</v>
       </c>
       <c r="X137">
-        <v>0.51505016722408</v>
+        <v>0.591111111111111</v>
       </c>
       <c r="Y137">
         <v>4</v>
       </c>
       <c r="Z137">
-        <v>0.377926421404682</v>
+        <v>0.404444444444444</v>
       </c>
       <c r="AA137">
-        <v>1.40963855421687</v>
+        <v>1.47058823529412</v>
       </c>
       <c r="AB137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD137">
         <v>1</v>
@@ -14637,379 +14628,379 @@
     </row>
     <row r="138" spans="1:31">
       <c r="A138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B138" t="s">
         <v>174</v>
       </c>
       <c r="C138">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D138">
-        <v>5670</v>
+        <v>3162</v>
       </c>
       <c r="E138">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>52.010582010582</v>
+        <v>73.4661606578115</v>
       </c>
       <c r="G138">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>26</v>
       </c>
       <c r="I138">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="J138">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K138">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="L138">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="M138">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="N138">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O138">
-        <v>1.86486486486486</v>
+        <v>1.75862068965517</v>
       </c>
       <c r="P138">
-        <v>1.92307692307692</v>
+        <v>1.88461538461539</v>
       </c>
       <c r="Q138">
-        <v>1.88636363636364</v>
+        <v>1.88135593220339</v>
       </c>
       <c r="R138">
-        <v>1.66666666666667</v>
+        <v>1.46666666666667</v>
       </c>
       <c r="S138">
-        <v>1.14606741573034</v>
+        <v>1.13333333333333</v>
       </c>
       <c r="T138">
-        <v>1.15094339622642</v>
+        <v>1.11764705882353</v>
       </c>
       <c r="U138">
-        <v>1.32894736842105</v>
+        <v>1.32558139534884</v>
       </c>
       <c r="V138">
-        <v>1.61538461538461</v>
+        <v>1.75</v>
       </c>
       <c r="W138">
-        <v>0.00444444444444444</v>
+        <v>0</v>
       </c>
       <c r="X138">
-        <v>0.591111111111111</v>
+        <v>0.554054054054054</v>
       </c>
       <c r="Y138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z138">
-        <v>0.404444444444444</v>
+        <v>0.466216216216216</v>
       </c>
       <c r="AA138">
-        <v>1.47058823529412</v>
+        <v>1.29133858267717</v>
       </c>
       <c r="AB138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:31">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
         <v>175</v>
       </c>
       <c r="C139">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D139">
-        <v>3162</v>
+        <v>2496</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F139">
-        <v>73.4661606578115</v>
+        <v>26.0416666666667</v>
       </c>
       <c r="G139">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H139">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I139">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="J139">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K139">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="L139">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M139">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N139">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="O139">
-        <v>1.75862068965517</v>
+        <v>1.90243902439024</v>
       </c>
       <c r="P139">
-        <v>1.88461538461539</v>
+        <v>1.90476190476191</v>
       </c>
       <c r="Q139">
-        <v>1.88135593220339</v>
+        <v>1.80555555555556</v>
       </c>
       <c r="R139">
-        <v>1.46666666666667</v>
+        <v>1.44444444444444</v>
       </c>
       <c r="S139">
-        <v>1.13333333333333</v>
+        <v>1.14705882352941</v>
       </c>
       <c r="T139">
-        <v>1.11764705882353</v>
+        <v>1.41176470588235</v>
       </c>
       <c r="U139">
-        <v>1.32558139534884</v>
+        <v>1.53333333333333</v>
       </c>
       <c r="V139">
-        <v>1.75</v>
+        <v>1.86363636363636</v>
       </c>
       <c r="W139">
         <v>0</v>
       </c>
       <c r="X139">
-        <v>0.554054054054054</v>
+        <v>0.678260869565217</v>
       </c>
       <c r="Y139">
+        <v>3</v>
+      </c>
+      <c r="Z139">
+        <v>0.269565217391304</v>
+      </c>
+      <c r="AA139">
+        <v>1.48333333333333</v>
+      </c>
+      <c r="AB139">
         <v>2</v>
       </c>
-      <c r="Z139">
-        <v>0.466216216216216</v>
-      </c>
-      <c r="AA139">
-        <v>1.29133858267717</v>
-      </c>
-      <c r="AB139">
-        <v>0</v>
-      </c>
       <c r="AC139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:31">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B140" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C140">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>3186</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>11.7074701820464</v>
+      </c>
+      <c r="G140">
+        <v>35</v>
+      </c>
+      <c r="H140">
+        <v>46</v>
+      </c>
+      <c r="I140">
+        <v>93</v>
+      </c>
+      <c r="J140">
         <v>20</v>
       </c>
-      <c r="D140">
-        <v>2496</v>
-      </c>
-      <c r="E140">
-        <v>4</v>
-      </c>
-      <c r="F140">
-        <v>26.0416666666667</v>
-      </c>
-      <c r="G140">
-        <v>41</v>
-      </c>
-      <c r="H140">
-        <v>21</v>
-      </c>
-      <c r="I140">
-        <v>36</v>
-      </c>
-      <c r="J140">
-        <v>27</v>
-      </c>
       <c r="K140">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="L140">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M140">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N140">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="O140">
-        <v>1.90243902439024</v>
+        <v>1.77142857142857</v>
       </c>
       <c r="P140">
-        <v>1.90476190476191</v>
+        <v>1.78260869565217</v>
       </c>
       <c r="Q140">
-        <v>1.80555555555556</v>
+        <v>1.68817204301075</v>
       </c>
       <c r="R140">
-        <v>1.44444444444444</v>
+        <v>1.5</v>
       </c>
       <c r="S140">
-        <v>1.14705882352941</v>
+        <v>0.685185185185185</v>
       </c>
       <c r="T140">
-        <v>1.41176470588235</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="U140">
-        <v>1.53333333333333</v>
+        <v>1.16216216216216</v>
       </c>
       <c r="V140">
-        <v>1.86363636363636</v>
+        <v>1</v>
       </c>
       <c r="W140">
         <v>0</v>
       </c>
       <c r="X140">
-        <v>0.678260869565217</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="Y140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z140">
-        <v>0.269565217391304</v>
+        <v>0.11304347826087</v>
       </c>
       <c r="AA140">
-        <v>1.48333333333333</v>
+        <v>1.05405405405405</v>
       </c>
       <c r="AB140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD140">
         <v>1</v>
       </c>
       <c r="AE140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:31">
       <c r="A141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B141" t="s">
         <v>178</v>
       </c>
       <c r="C141">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>3186</v>
+        <v>30</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
-        <v>11.7074701820464</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="I141">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="J141">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="L141">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M141">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O141">
-        <v>1.77142857142857</v>
+        <v>0</v>
       </c>
       <c r="P141">
-        <v>1.78260869565217</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="Q141">
-        <v>1.68817204301075</v>
+        <v>1.5</v>
       </c>
       <c r="R141">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S141">
-        <v>0.685185185185185</v>
+        <v>0.2</v>
       </c>
       <c r="T141">
-        <v>0.928571428571429</v>
+        <v>0</v>
       </c>
       <c r="U141">
-        <v>1.16216216216216</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W141">
         <v>0</v>
       </c>
       <c r="X141">
-        <v>0.478260869565217</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y141">
         <v>1</v>
       </c>
       <c r="Z141">
-        <v>0.11304347826087</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="AA141">
-        <v>1.05405405405405</v>
+        <v>0.5</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC141">
         <v>0</v>
       </c>
       <c r="AD141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE141">
         <v>0</v>
@@ -15017,16 +15008,16 @@
     </row>
     <row r="142" spans="1:31">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B142" t="s">
         <v>179</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D142">
-        <v>30</v>
+        <v>3876</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -15035,165 +15026,165 @@
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="I142">
+        <v>116</v>
+      </c>
+      <c r="J142">
+        <v>14</v>
+      </c>
+      <c r="K142">
+        <v>60</v>
+      </c>
+      <c r="L142">
+        <v>17</v>
+      </c>
+      <c r="M142">
+        <v>25</v>
+      </c>
+      <c r="N142">
+        <v>6</v>
+      </c>
+      <c r="O142">
+        <v>1.62962962962963</v>
+      </c>
+      <c r="P142">
+        <v>1.73770491803279</v>
+      </c>
+      <c r="Q142">
+        <v>1.66379310344828</v>
+      </c>
+      <c r="R142">
+        <v>1.5</v>
+      </c>
+      <c r="S142">
+        <v>1.03333333333333</v>
+      </c>
+      <c r="T142">
+        <v>1.11764705882353</v>
+      </c>
+      <c r="U142">
+        <v>1.24</v>
+      </c>
+      <c r="V142">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0.581196581196581</v>
+      </c>
+      <c r="Y142">
+        <v>1</v>
+      </c>
+      <c r="Z142">
+        <v>0.247863247863248</v>
+      </c>
+      <c r="AA142">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="AB142">
         <v>2</v>
       </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <v>5</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142">
-        <v>3</v>
-      </c>
-      <c r="N142">
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142">
-        <v>1.33333333333333</v>
-      </c>
-      <c r="Q142">
-        <v>1.5</v>
-      </c>
-      <c r="R142">
-        <v>0</v>
-      </c>
-      <c r="S142">
-        <v>0.2</v>
-      </c>
-      <c r="T142">
-        <v>0</v>
-      </c>
-      <c r="U142">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="V142">
-        <v>0</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="Y142">
-        <v>1</v>
-      </c>
-      <c r="Z142">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="AA142">
-        <v>0.5</v>
-      </c>
-      <c r="AB142">
-        <v>0</v>
-      </c>
       <c r="AC142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:31">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B143" t="s">
         <v>180</v>
       </c>
       <c r="C143">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D143">
-        <v>3876</v>
+        <v>3568</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>29.4843049327354</v>
       </c>
       <c r="G143">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H143">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I143">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="J143">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K143">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L143">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M143">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O143">
-        <v>1.62962962962963</v>
+        <v>1.57534246575342</v>
       </c>
       <c r="P143">
-        <v>1.73770491803279</v>
+        <v>1.6734693877551</v>
       </c>
       <c r="Q143">
-        <v>1.66379310344828</v>
+        <v>1.76136363636364</v>
       </c>
       <c r="R143">
-        <v>1.5</v>
+        <v>1.1875</v>
       </c>
       <c r="S143">
-        <v>1.03333333333333</v>
+        <v>0.813333333333333</v>
       </c>
       <c r="T143">
-        <v>1.11764705882353</v>
+        <v>1.125</v>
       </c>
       <c r="U143">
-        <v>1.24</v>
+        <v>1.15909090909091</v>
       </c>
       <c r="V143">
-        <v>1.83333333333333</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
-        <v>0</v>
+        <v>0.00386100386100386</v>
       </c>
       <c r="X143">
-        <v>0.581196581196581</v>
+        <v>0.474903474903475</v>
       </c>
       <c r="Y143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z143">
-        <v>0.247863247863248</v>
+        <v>0.563706563706564</v>
       </c>
       <c r="AA143">
-        <v>1.33333333333333</v>
+        <v>1.42553191489362</v>
       </c>
       <c r="AB143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC143">
         <v>1</v>
@@ -15207,88 +15198,88 @@
     </row>
     <row r="144" spans="1:31">
       <c r="A144" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B144" t="s">
         <v>181</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144">
-        <v>3568</v>
+        <v>3452</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>29.4843049327354</v>
+        <v>4.77983777520278</v>
       </c>
       <c r="G144">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="H144">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I144">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="J144">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K144">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="L144">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="M144">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N144">
         <v>5</v>
       </c>
       <c r="O144">
-        <v>1.57534246575342</v>
+        <v>1.55769230769231</v>
       </c>
       <c r="P144">
-        <v>1.6734693877551</v>
+        <v>1.51219512195122</v>
       </c>
       <c r="Q144">
-        <v>1.76136363636364</v>
+        <v>1.66371681415929</v>
       </c>
       <c r="R144">
-        <v>1.1875</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="S144">
-        <v>0.813333333333333</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="T144">
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="U144">
-        <v>1.15909090909091</v>
+        <v>1.15151515151515</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="W144">
-        <v>0.00386100386100386</v>
+        <v>0</v>
       </c>
       <c r="X144">
-        <v>0.474903474903475</v>
+        <v>0.42756183745583</v>
       </c>
       <c r="Y144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z144">
-        <v>0.563706563706564</v>
+        <v>0.371024734982332</v>
       </c>
       <c r="AA144">
-        <v>1.42553191489362</v>
+        <v>1.29559748427673</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC144">
         <v>1</v>
@@ -15302,180 +15293,180 @@
     </row>
     <row r="145" spans="1:31">
       <c r="A145" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B145" t="s">
         <v>182</v>
       </c>
       <c r="C145">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D145">
-        <v>3452</v>
+        <v>48</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>4.77983777520278</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="J145">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="L145">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M145">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="N145">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O145">
-        <v>1.55769230769231</v>
+        <v>0</v>
       </c>
       <c r="P145">
-        <v>1.51219512195122</v>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <v>1.66371681415929</v>
+        <v>2</v>
       </c>
       <c r="R145">
-        <v>1.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="S145">
-        <v>0.857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="T145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U145">
-        <v>1.15151515151515</v>
+        <v>1.5</v>
       </c>
       <c r="V145">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W145">
         <v>0</v>
       </c>
       <c r="X145">
-        <v>0.42756183745583</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y145">
         <v>1</v>
       </c>
       <c r="Z145">
-        <v>0.371024734982332</v>
+        <v>0.5</v>
       </c>
       <c r="AA145">
-        <v>1.29559748427673</v>
+        <v>1.2</v>
       </c>
       <c r="AB145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:31">
       <c r="A146" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B146" t="s">
         <v>183</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D146">
-        <v>48</v>
+        <v>3735</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>31.7804551539491</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K146">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="L146">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M146">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="N146">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O146">
-        <v>0</v>
+        <v>1.69230769230769</v>
       </c>
       <c r="P146">
-        <v>0</v>
+        <v>1.83673469387755</v>
       </c>
       <c r="Q146">
-        <v>2</v>
+        <v>1.74193548387097</v>
       </c>
       <c r="R146">
-        <v>0</v>
+        <v>1.52941176470588</v>
       </c>
       <c r="S146">
-        <v>0.2</v>
+        <v>0.973333333333333</v>
       </c>
       <c r="T146">
-        <v>0</v>
+        <v>1.40909090909091</v>
       </c>
       <c r="U146">
-        <v>1.5</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="V146">
-        <v>0</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>0.00366300366300366</v>
       </c>
       <c r="X146">
-        <v>0.166666666666667</v>
+        <v>0.564102564102564</v>
       </c>
       <c r="Y146">
         <v>1</v>
       </c>
       <c r="Z146">
-        <v>0.5</v>
+        <v>0.296703296703297</v>
       </c>
       <c r="AA146">
-        <v>1.2</v>
+        <v>1.43650793650794</v>
       </c>
       <c r="AB146">
         <v>0</v>
@@ -15492,85 +15483,85 @@
     </row>
     <row r="147" spans="1:31">
       <c r="A147" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B147" t="s">
         <v>184</v>
       </c>
       <c r="C147">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D147">
-        <v>3735</v>
+        <v>4118</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>31.7804551539491</v>
+        <v>3.01117047110248</v>
       </c>
       <c r="G147">
         <v>39</v>
       </c>
       <c r="H147">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I147">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="J147">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K147">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="L147">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M147">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N147">
         <v>6</v>
       </c>
       <c r="O147">
-        <v>1.69230769230769</v>
+        <v>1.82051282051282</v>
       </c>
       <c r="P147">
-        <v>1.83673469387755</v>
+        <v>1.80769230769231</v>
       </c>
       <c r="Q147">
-        <v>1.74193548387097</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="R147">
-        <v>1.52941176470588</v>
+        <v>1.75</v>
       </c>
       <c r="S147">
-        <v>0.973333333333333</v>
+        <v>0.975</v>
       </c>
       <c r="T147">
-        <v>1.40909090909091</v>
+        <v>1.22222222222222</v>
       </c>
       <c r="U147">
-        <v>1.19047619047619</v>
+        <v>1.25</v>
       </c>
       <c r="V147">
         <v>1.33333333333333</v>
       </c>
       <c r="W147">
-        <v>0.00366300366300366</v>
+        <v>0</v>
       </c>
       <c r="X147">
-        <v>0.564102564102564</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="Y147">
         <v>1</v>
       </c>
       <c r="Z147">
-        <v>0.296703296703297</v>
+        <v>0.375886524822695</v>
       </c>
       <c r="AA147">
-        <v>1.43650793650794</v>
+        <v>1.57303370786517</v>
       </c>
       <c r="AB147">
         <v>0</v>
@@ -15587,102 +15578,102 @@
     </row>
     <row r="148" spans="1:31">
       <c r="A148" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B148" t="s">
         <v>185</v>
       </c>
       <c r="C148">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148">
-        <v>4118</v>
+        <v>3771</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>3.01117047110248</v>
+        <v>13.9750729249536</v>
       </c>
       <c r="G148">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H148">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I148">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="J148">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K148">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="L148">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M148">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O148">
-        <v>1.82051282051282</v>
+        <v>1.67567567567568</v>
       </c>
       <c r="P148">
-        <v>1.80769230769231</v>
+        <v>1.80555555555556</v>
       </c>
       <c r="Q148">
-        <v>1.91666666666667</v>
+        <v>1.6864406779661</v>
       </c>
       <c r="R148">
-        <v>1.75</v>
+        <v>1.35714285714286</v>
       </c>
       <c r="S148">
-        <v>0.975</v>
+        <v>1.03703703703704</v>
       </c>
       <c r="T148">
         <v>1.22222222222222</v>
       </c>
       <c r="U148">
-        <v>1.25</v>
+        <v>1.44444444444444</v>
       </c>
       <c r="V148">
-        <v>1.33333333333333</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="W148">
-        <v>0</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="X148">
-        <v>0.638297872340426</v>
+        <v>0.549019607843137</v>
       </c>
       <c r="Y148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z148">
-        <v>0.375886524822695</v>
+        <v>0.545098039215686</v>
       </c>
       <c r="AA148">
-        <v>1.57303370786517</v>
+        <v>1.47685185185185</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:31">
       <c r="A149" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B149" t="s">
         <v>186</v>
@@ -15691,174 +15682,174 @@
         <v>12</v>
       </c>
       <c r="D149">
-        <v>3771</v>
+        <v>3933</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>13.9750729249536</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H149">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I149">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J149">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K149">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L149">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M149">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N149">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O149">
-        <v>1.67567567567568</v>
+        <v>1.69230769230769</v>
       </c>
       <c r="P149">
-        <v>1.80555555555556</v>
+        <v>1.76470588235294</v>
       </c>
       <c r="Q149">
-        <v>1.6864406779661</v>
+        <v>1.74725274725275</v>
       </c>
       <c r="R149">
-        <v>1.35714285714286</v>
+        <v>1.32142857142857</v>
       </c>
       <c r="S149">
-        <v>1.03703703703704</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="T149">
-        <v>1.22222222222222</v>
+        <v>1.0625</v>
       </c>
       <c r="U149">
-        <v>1.44444444444444</v>
+        <v>1.41176470588235</v>
       </c>
       <c r="V149">
-        <v>1.42857142857143</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
-        <v>0.00392156862745098</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="X149">
-        <v>0.549019607843137</v>
+        <v>0.5</v>
       </c>
       <c r="Y149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z149">
-        <v>0.545098039215686</v>
+        <v>0.199074074074074</v>
       </c>
       <c r="AA149">
-        <v>1.47685185185185</v>
+        <v>1.25714285714286</v>
       </c>
       <c r="AB149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD149">
         <v>1</v>
       </c>
       <c r="AE149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:31">
       <c r="A150" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B150" t="s">
         <v>187</v>
       </c>
       <c r="C150">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D150">
-        <v>3933</v>
+        <v>3770</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>67.1883289124668</v>
       </c>
       <c r="G150">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H150">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I150">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="J150">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K150">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L150">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M150">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N150">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O150">
-        <v>1.69230769230769</v>
+        <v>1.68085106382979</v>
       </c>
       <c r="P150">
-        <v>1.76470588235294</v>
+        <v>1.86792452830189</v>
       </c>
       <c r="Q150">
-        <v>1.74725274725275</v>
+        <v>1.74285714285714</v>
       </c>
       <c r="R150">
-        <v>1.32142857142857</v>
+        <v>1.43243243243243</v>
       </c>
       <c r="S150">
-        <v>0.931034482758621</v>
+        <v>1.09210526315789</v>
       </c>
       <c r="T150">
-        <v>1.0625</v>
+        <v>1.38888888888889</v>
       </c>
       <c r="U150">
-        <v>1.41176470588235</v>
+        <v>1.3695652173913</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.26666666666667</v>
       </c>
       <c r="W150">
-        <v>0.00462962962962963</v>
+        <v>0</v>
       </c>
       <c r="X150">
-        <v>0.5</v>
+        <v>0.542435424354244</v>
       </c>
       <c r="Y150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z150">
-        <v>0.199074074074074</v>
+        <v>0.428044280442804</v>
       </c>
       <c r="AA150">
-        <v>1.25714285714286</v>
+        <v>1.49206349206349</v>
       </c>
       <c r="AB150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC150">
         <v>0</v>
@@ -15872,88 +15863,88 @@
     </row>
     <row r="151" spans="1:31">
       <c r="A151" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B151" t="s">
         <v>188</v>
       </c>
       <c r="C151">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D151">
-        <v>3770</v>
+        <v>3482</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>67.1883289124668</v>
+        <v>11.9184376794945</v>
       </c>
       <c r="G151">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H151">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I151">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="J151">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K151">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="L151">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M151">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N151">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="O151">
-        <v>1.68085106382979</v>
+        <v>1.44444444444444</v>
       </c>
       <c r="P151">
-        <v>1.86792452830189</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="Q151">
-        <v>1.74285714285714</v>
+        <v>1.72093023255814</v>
       </c>
       <c r="R151">
-        <v>1.43243243243243</v>
+        <v>1.35714285714286</v>
       </c>
       <c r="S151">
-        <v>1.09210526315789</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="T151">
-        <v>1.38888888888889</v>
+        <v>1.26315789473684</v>
       </c>
       <c r="U151">
-        <v>1.3695652173913</v>
+        <v>1.1875</v>
       </c>
       <c r="V151">
-        <v>1.26666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="W151">
-        <v>0</v>
+        <v>0.00273972602739726</v>
       </c>
       <c r="X151">
-        <v>0.542435424354244</v>
+        <v>0.421917808219178</v>
       </c>
       <c r="Y151">
         <v>2</v>
       </c>
       <c r="Z151">
-        <v>0.428044280442804</v>
+        <v>0.282191780821918</v>
       </c>
       <c r="AA151">
-        <v>1.49206349206349</v>
+        <v>1.3125</v>
       </c>
       <c r="AB151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC151">
         <v>0</v>
@@ -15967,275 +15958,275 @@
     </row>
     <row r="152" spans="1:31">
       <c r="A152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B152" t="s">
         <v>189</v>
       </c>
       <c r="C152">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D152">
-        <v>3482</v>
+        <v>3288</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>11.9184376794945</v>
+        <v>26.3686131386861</v>
       </c>
       <c r="G152">
         <v>36</v>
       </c>
       <c r="H152">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I152">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="J152">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K152">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="L152">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M152">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N152">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O152">
-        <v>1.44444444444444</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="P152">
-        <v>1.66666666666667</v>
+        <v>1.58695652173913</v>
       </c>
       <c r="Q152">
-        <v>1.72093023255814</v>
+        <v>1.73563218390805</v>
       </c>
       <c r="R152">
-        <v>1.35714285714286</v>
+        <v>1.25</v>
       </c>
       <c r="S152">
-        <v>0.928571428571429</v>
+        <v>0.746835443037975</v>
       </c>
       <c r="T152">
-        <v>1.26315789473684</v>
+        <v>1</v>
       </c>
       <c r="U152">
-        <v>1.1875</v>
+        <v>1.11764705882353</v>
       </c>
       <c r="V152">
-        <v>1.5</v>
+        <v>1.58333333333333</v>
       </c>
       <c r="W152">
-        <v>0.00273972602739726</v>
+        <v>0.00387596899224806</v>
       </c>
       <c r="X152">
-        <v>0.421917808219178</v>
+        <v>0.441860465116279</v>
       </c>
       <c r="Y152">
+        <v>1</v>
+      </c>
+      <c r="Z152">
+        <v>0.25968992248062</v>
+      </c>
+      <c r="AA152">
+        <v>1.1747572815534</v>
+      </c>
+      <c r="AB152">
         <v>2</v>
       </c>
-      <c r="Z152">
-        <v>0.282191780821918</v>
-      </c>
-      <c r="AA152">
-        <v>1.3125</v>
-      </c>
-      <c r="AB152">
-        <v>1</v>
-      </c>
       <c r="AC152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD152">
         <v>1</v>
       </c>
       <c r="AE152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:31">
       <c r="A153" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B153" t="s">
         <v>190</v>
       </c>
       <c r="C153">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D153">
-        <v>3288</v>
+        <v>3584</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>26.3686131386861</v>
+        <v>32.2823660714286</v>
       </c>
       <c r="G153">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H153">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I153">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="J153">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K153">
         <v>79</v>
       </c>
       <c r="L153">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="M153">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N153">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O153">
-        <v>1.66666666666667</v>
+        <v>1.6031746031746</v>
       </c>
       <c r="P153">
-        <v>1.58695652173913</v>
+        <v>1.625</v>
       </c>
       <c r="Q153">
-        <v>1.73563218390805</v>
+        <v>1.68695652173913</v>
       </c>
       <c r="R153">
-        <v>1.25</v>
+        <v>1.25714285714286</v>
       </c>
       <c r="S153">
-        <v>0.746835443037975</v>
+        <v>0.582278481012658</v>
       </c>
       <c r="T153">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U153">
-        <v>1.11764705882353</v>
+        <v>1.03571428571429</v>
       </c>
       <c r="V153">
-        <v>1.58333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="W153">
-        <v>0.00387596899224806</v>
+        <v>0.0284697508896797</v>
       </c>
       <c r="X153">
-        <v>0.441860465116279</v>
+        <v>0.416370106761566</v>
       </c>
       <c r="Y153">
         <v>1</v>
       </c>
       <c r="Z153">
-        <v>0.25968992248062</v>
+        <v>0.181494661921708</v>
       </c>
       <c r="AA153">
-        <v>1.1747572815534</v>
+        <v>1.14492753623188</v>
       </c>
       <c r="AB153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:31">
       <c r="A154" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B154" t="s">
         <v>191</v>
       </c>
       <c r="C154">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D154">
-        <v>3584</v>
+        <v>3566</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>32.2823660714286</v>
+        <v>14.5541222658441</v>
       </c>
       <c r="G154">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="H154">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I154">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="J154">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K154">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="L154">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M154">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O154">
-        <v>1.6031746031746</v>
+        <v>1.77777777777778</v>
       </c>
       <c r="P154">
-        <v>1.625</v>
+        <v>1.71794871794872</v>
       </c>
       <c r="Q154">
-        <v>1.68695652173913</v>
+        <v>1.82352941176471</v>
       </c>
       <c r="R154">
-        <v>1.25714285714286</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="S154">
-        <v>0.582278481012658</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="T154">
-        <v>0.666666666666667</v>
+        <v>1.46666666666667</v>
       </c>
       <c r="U154">
-        <v>1.03571428571429</v>
+        <v>1.23076923076923</v>
       </c>
       <c r="V154">
         <v>1.5</v>
       </c>
       <c r="W154">
-        <v>0.0284697508896797</v>
+        <v>0</v>
       </c>
       <c r="X154">
-        <v>0.416370106761566</v>
+        <v>0.553299492385787</v>
       </c>
       <c r="Y154">
         <v>1</v>
       </c>
       <c r="Z154">
-        <v>0.181494661921708</v>
+        <v>0.482233502538071</v>
       </c>
       <c r="AA154">
-        <v>1.14492753623188</v>
+        <v>1.52777777777778</v>
       </c>
       <c r="AB154">
         <v>0</v>
@@ -16252,94 +16243,94 @@
     </row>
     <row r="155" spans="1:31">
       <c r="A155" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B155" t="s">
         <v>192</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D155">
-        <v>3566</v>
+        <v>3221</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155">
-        <v>14.5541222658441</v>
+        <v>9.68643278484943</v>
       </c>
       <c r="G155">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H155">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I155">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J155">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K155">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L155">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M155">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="N155">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O155">
         <v>1.77777777777778</v>
       </c>
       <c r="P155">
-        <v>1.71794871794872</v>
+        <v>1.67391304347826</v>
       </c>
       <c r="Q155">
-        <v>1.82352941176471</v>
+        <v>1.67816091954023</v>
       </c>
       <c r="R155">
-        <v>1.19047619047619</v>
+        <v>1.54545454545454</v>
       </c>
       <c r="S155">
-        <v>0.913793103448276</v>
+        <v>0.672131147540984</v>
       </c>
       <c r="T155">
-        <v>1.46666666666667</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="U155">
-        <v>1.23076923076923</v>
+        <v>1.23913043478261</v>
       </c>
       <c r="V155">
-        <v>1.5</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="W155">
         <v>0</v>
       </c>
       <c r="X155">
-        <v>0.553299492385787</v>
+        <v>0.464454976303318</v>
       </c>
       <c r="Y155">
         <v>1</v>
       </c>
       <c r="Z155">
-        <v>0.482233502538071</v>
+        <v>0.241706161137441</v>
       </c>
       <c r="AA155">
-        <v>1.52777777777778</v>
+        <v>1.21428571428571</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC155">
         <v>0</v>
       </c>
       <c r="AD155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE155">
         <v>0</v>
@@ -16347,7 +16338,7 @@
     </row>
     <row r="156" spans="1:31">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B156" t="s">
         <v>193</v>
@@ -16356,85 +16347,85 @@
         <v>10</v>
       </c>
       <c r="D156">
-        <v>3221</v>
+        <v>3056</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
       <c r="F156">
-        <v>9.68643278484943</v>
+        <v>22.0222513089005</v>
       </c>
       <c r="G156">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H156">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I156">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="J156">
+        <v>44</v>
+      </c>
+      <c r="K156">
+        <v>96</v>
+      </c>
+      <c r="L156">
         <v>22</v>
       </c>
-      <c r="K156">
-        <v>61</v>
-      </c>
-      <c r="L156">
-        <v>18</v>
-      </c>
       <c r="M156">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N156">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O156">
-        <v>1.77777777777778</v>
+        <v>1.56862745098039</v>
       </c>
       <c r="P156">
-        <v>1.67391304347826</v>
+        <v>1.76923076923077</v>
       </c>
       <c r="Q156">
-        <v>1.67816091954023</v>
+        <v>1.7027027027027</v>
       </c>
       <c r="R156">
-        <v>1.54545454545454</v>
+        <v>1.11363636363636</v>
       </c>
       <c r="S156">
-        <v>0.672131147540984</v>
+        <v>0.947916666666667</v>
       </c>
       <c r="T156">
-        <v>1.33333333333333</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="U156">
-        <v>1.23913043478261</v>
+        <v>1.13725490196078</v>
       </c>
       <c r="V156">
-        <v>1.57142857142857</v>
+        <v>1.08333333333333</v>
       </c>
       <c r="W156">
         <v>0</v>
       </c>
       <c r="X156">
-        <v>0.464454976303318</v>
+        <v>0.413461538461538</v>
       </c>
       <c r="Y156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z156">
-        <v>0.241706161137441</v>
+        <v>0.560897435897436</v>
       </c>
       <c r="AA156">
-        <v>1.21428571428571</v>
+        <v>1.22348484848485</v>
       </c>
       <c r="AB156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC156">
         <v>0</v>
       </c>
       <c r="AD156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE156">
         <v>0</v>
@@ -16442,7 +16433,7 @@
     </row>
     <row r="157" spans="1:31">
       <c r="A157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B157" t="s">
         <v>194</v>
@@ -16451,182 +16442,87 @@
         <v>10</v>
       </c>
       <c r="D157">
-        <v>3056</v>
+        <v>3376</v>
       </c>
       <c r="E157">
         <v>0</v>
       </c>
       <c r="F157">
-        <v>22.0222513089005</v>
+        <v>13.7144549763033</v>
       </c>
       <c r="G157">
+        <v>33</v>
+      </c>
+      <c r="H157">
         <v>51</v>
       </c>
-      <c r="H157">
-        <v>39</v>
-      </c>
       <c r="I157">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J157">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="K157">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="L157">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M157">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N157">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O157">
-        <v>1.56862745098039</v>
+        <v>1.63636363636364</v>
       </c>
       <c r="P157">
-        <v>1.76923076923077</v>
+        <v>1.86274509803922</v>
       </c>
       <c r="Q157">
-        <v>1.7027027027027</v>
+        <v>1.75247524752475</v>
       </c>
       <c r="R157">
-        <v>1.11363636363636</v>
+        <v>1.3125</v>
       </c>
       <c r="S157">
-        <v>0.947916666666667</v>
+        <v>0.92</v>
       </c>
       <c r="T157">
-        <v>0.954545454545455</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="U157">
-        <v>1.13725490196078</v>
+        <v>1.02631578947368</v>
       </c>
       <c r="V157">
-        <v>1.08333333333333</v>
+        <v>1.16666666666667</v>
       </c>
       <c r="W157">
-        <v>0</v>
+        <v>0.00778210116731518</v>
       </c>
       <c r="X157">
-        <v>0.413461538461538</v>
+        <v>0.490272373540856</v>
       </c>
       <c r="Y157">
+        <v>1</v>
+      </c>
+      <c r="Z157">
+        <v>0.32295719844358</v>
+      </c>
+      <c r="AA157">
+        <v>1.26890756302521</v>
+      </c>
+      <c r="AB157">
         <v>2</v>
       </c>
-      <c r="Z157">
-        <v>0.560897435897436</v>
-      </c>
-      <c r="AA157">
-        <v>1.22348484848485</v>
-      </c>
-      <c r="AB157">
-        <v>0</v>
-      </c>
       <c r="AC157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:31">
-      <c r="A158" t="s">
-        <v>177</v>
-      </c>
-      <c r="B158" t="s">
-        <v>195</v>
-      </c>
-      <c r="C158">
-        <v>10</v>
-      </c>
-      <c r="D158">
-        <v>3376</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>13.7144549763033</v>
-      </c>
-      <c r="G158">
-        <v>33</v>
-      </c>
-      <c r="H158">
-        <v>51</v>
-      </c>
-      <c r="I158">
-        <v>101</v>
-      </c>
-      <c r="J158">
-        <v>16</v>
-      </c>
-      <c r="K158">
-        <v>75</v>
-      </c>
-      <c r="L158">
-        <v>27</v>
-      </c>
-      <c r="M158">
-        <v>38</v>
-      </c>
-      <c r="N158">
-        <v>6</v>
-      </c>
-      <c r="O158">
-        <v>1.63636363636364</v>
-      </c>
-      <c r="P158">
-        <v>1.86274509803922</v>
-      </c>
-      <c r="Q158">
-        <v>1.75247524752475</v>
-      </c>
-      <c r="R158">
-        <v>1.3125</v>
-      </c>
-      <c r="S158">
-        <v>0.92</v>
-      </c>
-      <c r="T158">
-        <v>0.925925925925926</v>
-      </c>
-      <c r="U158">
-        <v>1.02631578947368</v>
-      </c>
-      <c r="V158">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="W158">
-        <v>0.00778210116731518</v>
-      </c>
-      <c r="X158">
-        <v>0.490272373540856</v>
-      </c>
-      <c r="Y158">
-        <v>1</v>
-      </c>
-      <c r="Z158">
-        <v>0.32295719844358</v>
-      </c>
-      <c r="AA158">
-        <v>1.26890756302521</v>
-      </c>
-      <c r="AB158">
-        <v>2</v>
-      </c>
-      <c r="AC158">
-        <v>1</v>
-      </c>
-      <c r="AD158">
-        <v>1</v>
-      </c>
-      <c r="AE158">
         <v>1</v>
       </c>
     </row>
